--- a/data/mmsi.xlsx
+++ b/data/mmsi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mmsi</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Process finished with exit code 1</t>
-  </si>
-  <si>
-    <t>Process finished with exit code 0</t>
   </si>
 </sst>
 </file>
@@ -22053,17 +22050,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22085,7 +22082,7 @@
         <v>43801.5486111111</v>
       </c>
       <c r="E2" s="1">
-        <v>43801.5486111111</v>
+        <v>43827.0513888889</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22096,7 +22093,7 @@
         <v>43801.8083333333</v>
       </c>
       <c r="E3" s="1">
-        <v>43801.8083333333</v>
+        <v>43827.1375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -22107,7 +22104,7 @@
         <v>43802.2888888889</v>
       </c>
       <c r="E4" s="1">
-        <v>43802.2888888889</v>
+        <v>43827.2847222222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -22118,7 +22115,7 @@
         <v>43803.3125</v>
       </c>
       <c r="E5" s="1">
-        <v>43803.3125</v>
+        <v>43827.4569444444</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -22129,7 +22126,7 @@
         <v>43803.4208333333</v>
       </c>
       <c r="E6" s="1">
-        <v>43803.4208333333</v>
+        <v>43827.4722222222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -22140,7 +22137,7 @@
         <v>43804.4777777778</v>
       </c>
       <c r="E7" s="1">
-        <v>43804.4777777778</v>
+        <v>43827.4763888889</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -22151,7 +22148,7 @@
         <v>43804.7666666667</v>
       </c>
       <c r="E8" s="1">
-        <v>43804.7666666667</v>
+        <v>43827.5472222222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -22162,7 +22159,7 @@
         <v>43805.125</v>
       </c>
       <c r="E9" s="1">
-        <v>43805.125</v>
+        <v>43827.5680555556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -22173,7 +22170,7 @@
         <v>43805.2902777778</v>
       </c>
       <c r="E10" s="1">
-        <v>43805.2902777778</v>
+        <v>43827.6333333333</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -22184,7 +22181,7 @@
         <v>43805.7819444444</v>
       </c>
       <c r="E11" s="1">
-        <v>43805.7819444444</v>
+        <v>43827.6680555556</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -22195,7 +22192,7 @@
         <v>43806.3152777778</v>
       </c>
       <c r="E12" s="1">
-        <v>43806.3152777778</v>
+        <v>43828.0069444444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -22206,7 +22203,7 @@
         <v>43806.3180555556</v>
       </c>
       <c r="E13" s="1">
-        <v>43806.3180555556</v>
+        <v>43828.0875</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -22217,7 +22214,7 @@
         <v>43806.3986111111</v>
       </c>
       <c r="E14" s="1">
-        <v>43806.3986111111</v>
+        <v>43828.125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -22228,7 +22225,7 @@
         <v>43807.2680555556</v>
       </c>
       <c r="E15" s="1">
-        <v>43807.2680555556</v>
+        <v>43828.6180555556</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -22239,7 +22236,7 @@
         <v>43808.0791666667</v>
       </c>
       <c r="E16" s="1">
-        <v>43808.0791666667</v>
+        <v>43828.6194444444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -22250,7 +22247,7 @@
         <v>43808.75</v>
       </c>
       <c r="E17" s="1">
-        <v>43808.75</v>
+        <v>43828.6416666667</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -22261,7 +22258,7 @@
         <v>43808.7680555556</v>
       </c>
       <c r="E18" s="1">
-        <v>43808.7680555556</v>
+        <v>43828.7555555556</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -22271,8 +22268,8 @@
       <c r="C19">
         <v>477752200</v>
       </c>
-      <c r="E19">
-        <v>477752200</v>
+      <c r="E19" s="1">
+        <v>43828.9847222222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -22282,8 +22279,8 @@
       <c r="C20" s="1">
         <v>43800.4333333333</v>
       </c>
-      <c r="E20" s="1">
-        <v>43800.4333333333</v>
+      <c r="E20">
+        <v>477752200</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -22294,7 +22291,7 @@
         <v>43800.8611111111</v>
       </c>
       <c r="E21" s="1">
-        <v>43800.8611111111</v>
+        <v>43827.7861111111</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -22305,7 +22302,7 @@
         <v>43800.9222222222</v>
       </c>
       <c r="E22" s="1">
-        <v>43800.9222222222</v>
+        <v>43827.9527777778</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -22316,7 +22313,7 @@
         <v>43800.9236111111</v>
       </c>
       <c r="E23" s="1">
-        <v>43800.9236111111</v>
+        <v>43828.0069444444</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -22327,7 +22324,7 @@
         <v>43800.9861111111</v>
       </c>
       <c r="E24" s="1">
-        <v>43800.9861111111</v>
+        <v>43828.2416666667</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -22338,7 +22335,7 @@
         <v>43801.1013888889</v>
       </c>
       <c r="E25" s="1">
-        <v>43801.1013888889</v>
+        <v>43828.6180555556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -22349,7 +22346,7 @@
         <v>43801.5222222222</v>
       </c>
       <c r="E26" s="1">
-        <v>43801.5222222222</v>
+        <v>43828.7388888889</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -22360,7 +22357,7 @@
         <v>43801.5888888889</v>
       </c>
       <c r="E27" s="1">
-        <v>43801.5888888889</v>
+        <v>43828.8402777778</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -22370,8 +22367,8 @@
       <c r="C28" s="1">
         <v>43801.75</v>
       </c>
-      <c r="E28" s="1">
-        <v>43801.75</v>
+      <c r="E28">
+        <v>477181700</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -22382,7 +22379,7 @@
         <v>43801.7736111111</v>
       </c>
       <c r="E29" s="1">
-        <v>43801.7736111111</v>
+        <v>43828.5291666667</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -22392,8 +22389,8 @@
       <c r="C30" s="1">
         <v>43802.0625</v>
       </c>
-      <c r="E30" s="1">
-        <v>43802.0625</v>
+      <c r="E30">
+        <v>477548400</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -22404,7 +22401,7 @@
         <v>43802.0861111111</v>
       </c>
       <c r="E31" s="1">
-        <v>43802.0861111111</v>
+        <v>43828.0166666667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -22415,7 +22412,7 @@
         <v>43802.2611111111</v>
       </c>
       <c r="E32" s="1">
-        <v>43802.2611111111</v>
+        <v>43828.0361111111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -22425,8 +22422,8 @@
       <c r="C33" s="1">
         <v>43802.4819444444</v>
       </c>
-      <c r="E33" s="1">
-        <v>43802.4819444444</v>
+      <c r="E33">
+        <v>414436000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -22437,7 +22434,7 @@
         <v>43802.5055555556</v>
       </c>
       <c r="E34" s="1">
-        <v>43802.5055555556</v>
+        <v>43827.2597222222</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -22447,8 +22444,8 @@
       <c r="C35" s="1">
         <v>43803.0125</v>
       </c>
-      <c r="E35" s="1">
-        <v>43803.0125</v>
+      <c r="E35">
+        <v>565003000</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -22459,7 +22456,7 @@
         <v>43803.0333333333</v>
       </c>
       <c r="E36" s="1">
-        <v>43803.0333333333</v>
+        <v>43828.6041666667</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -22469,8 +22466,8 @@
       <c r="C37" s="1">
         <v>43803.7319444444</v>
       </c>
-      <c r="E37" s="1">
-        <v>43803.7319444444</v>
+      <c r="E37">
+        <v>574375000</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -22481,7 +22478,7 @@
         <v>43804.0277777778</v>
       </c>
       <c r="E38" s="1">
-        <v>43804.0277777778</v>
+        <v>43827.9694444444</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -22492,7 +22489,7 @@
         <v>43804.0472222222</v>
       </c>
       <c r="E39" s="1">
-        <v>43804.0472222222</v>
+        <v>43828.0375</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -22502,8 +22499,8 @@
       <c r="C40" s="1">
         <v>43804.4041666667</v>
       </c>
-      <c r="E40" s="1">
-        <v>43804.4041666667</v>
+      <c r="E40">
+        <v>538004459</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -22514,7 +22511,7 @@
         <v>43804.475</v>
       </c>
       <c r="E41" s="1">
-        <v>43804.475</v>
+        <v>43827.4569444444</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -22524,8 +22521,8 @@
       <c r="C42" s="1">
         <v>43804.4875</v>
       </c>
-      <c r="E42" s="1">
-        <v>43804.4875</v>
+      <c r="E42">
+        <v>564290000</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -22536,7 +22533,7 @@
         <v>43804.5416666667</v>
       </c>
       <c r="E43" s="1">
-        <v>43804.5416666667</v>
+        <v>43827.05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -22547,7 +22544,7 @@
         <v>43804.9527777778</v>
       </c>
       <c r="E44" s="1">
-        <v>43804.9527777778</v>
+        <v>43827.2361111111</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -22558,7 +22555,7 @@
         <v>43805.2402777778</v>
       </c>
       <c r="E45" s="1">
-        <v>43805.2402777778</v>
+        <v>43827.2930555556</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -22569,7 +22566,7 @@
         <v>43805.4597222222</v>
       </c>
       <c r="E46" s="1">
-        <v>43805.4597222222</v>
+        <v>43827.3375</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -22579,8 +22576,8 @@
       <c r="C47">
         <v>477181700</v>
       </c>
-      <c r="E47">
-        <v>477181700</v>
+      <c r="E47" s="1">
+        <v>43827.5458333333</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -22591,7 +22588,7 @@
         <v>43800.0291666667</v>
       </c>
       <c r="E48" s="1">
-        <v>43800.0291666667</v>
+        <v>43827.5666666667</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -22602,7 +22599,7 @@
         <v>43800.4888888889</v>
       </c>
       <c r="E49" s="1">
-        <v>43800.4888888889</v>
+        <v>43827.6958333333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -22613,7 +22610,7 @@
         <v>43802.0777777778</v>
       </c>
       <c r="E50" s="1">
-        <v>43802.0777777778</v>
+        <v>43827.7333333333</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -22624,7 +22621,7 @@
         <v>43804.4486111111</v>
       </c>
       <c r="E51" s="1">
-        <v>43804.4486111111</v>
+        <v>43827.8111111111</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -22634,8 +22631,8 @@
       <c r="C52">
         <v>477942400</v>
       </c>
-      <c r="E52">
-        <v>477942400</v>
+      <c r="E52" s="1">
+        <v>43828.0125</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -22646,7 +22643,7 @@
         <v>43800.0791666667</v>
       </c>
       <c r="E53" s="1">
-        <v>43800.0791666667</v>
+        <v>43828.0708333333</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -22657,7 +22654,7 @@
         <v>43800.1680555556</v>
       </c>
       <c r="E54" s="1">
-        <v>43800.1680555556</v>
+        <v>43828.175</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -22668,7 +22665,7 @@
         <v>43800.2944444444</v>
       </c>
       <c r="E55" s="1">
-        <v>43800.2944444444</v>
+        <v>43828.2611111111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -22679,7 +22676,7 @@
         <v>43800.4972222222</v>
       </c>
       <c r="E56" s="1">
-        <v>43800.4972222222</v>
+        <v>43828.2777777778</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -22690,7 +22687,7 @@
         <v>43800.5277777778</v>
       </c>
       <c r="E57" s="1">
-        <v>43800.5277777778</v>
+        <v>43828.6152777778</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -22701,7 +22698,7 @@
         <v>43800.5777777778</v>
       </c>
       <c r="E58" s="1">
-        <v>43800.5777777778</v>
+        <v>43828.6805555556</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -22712,7 +22709,7 @@
         <v>43800.6583333333</v>
       </c>
       <c r="E59" s="1">
-        <v>43800.6583333333</v>
+        <v>43828.6833333333</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -22723,7 +22720,7 @@
         <v>43800.7430555556</v>
       </c>
       <c r="E60" s="1">
-        <v>43800.7430555556</v>
+        <v>43828.9069444444</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -22734,7 +22731,7 @@
         <v>43801.05</v>
       </c>
       <c r="E61" s="1">
-        <v>43801.05</v>
+        <v>43828.9722222222</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -22744,8 +22741,8 @@
       <c r="C62" s="1">
         <v>43801.1180555556</v>
       </c>
-      <c r="E62" s="1">
-        <v>43801.1180555556</v>
+      <c r="E62">
+        <v>538004367</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -22756,15 +22753,15 @@
         <v>43801.2194444444</v>
       </c>
       <c r="E63" s="1">
-        <v>43801.2194444444</v>
+        <v>43827.1902777778</v>
       </c>
     </row>
     <row r="64" spans="3:5">
       <c r="C64" s="1">
         <v>43801.2430555556</v>
       </c>
-      <c r="E64" s="1">
-        <v>43801.2430555556</v>
+      <c r="E64">
+        <v>538004243</v>
       </c>
     </row>
     <row r="65" spans="3:5">
@@ -22772,7 +22769,7 @@
         <v>43801.2638888889</v>
       </c>
       <c r="E65" s="1">
-        <v>43801.2638888889</v>
+        <v>43827.1583333333</v>
       </c>
     </row>
     <row r="66" spans="3:5">
@@ -22780,7 +22777,7 @@
         <v>43801.3138888889</v>
       </c>
       <c r="E66" s="1">
-        <v>43801.3138888889</v>
+        <v>43827.2194444444</v>
       </c>
     </row>
     <row r="67" spans="3:5">
@@ -22788,7 +22785,7 @@
         <v>43801.4638888889</v>
       </c>
       <c r="E67" s="1">
-        <v>43801.4638888889</v>
+        <v>43827.2930555556</v>
       </c>
     </row>
     <row r="68" spans="3:5">
@@ -22796,7 +22793,7 @@
         <v>43801.6069444444</v>
       </c>
       <c r="E68" s="1">
-        <v>43801.6069444444</v>
+        <v>43827.3375</v>
       </c>
     </row>
     <row r="69" spans="3:5">
@@ -22804,7 +22801,7 @@
         <v>43801.7027777778</v>
       </c>
       <c r="E69" s="1">
-        <v>43801.7027777778</v>
+        <v>43827.375</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -22812,7 +22809,7 @@
         <v>43801.7763888889</v>
       </c>
       <c r="E70" s="1">
-        <v>43801.7763888889</v>
+        <v>43827.4805555556</v>
       </c>
     </row>
     <row r="71" spans="3:5">
@@ -22820,7 +22817,7 @@
         <v>43801.85</v>
       </c>
       <c r="E71" s="1">
-        <v>43801.85</v>
+        <v>43827.4930555556</v>
       </c>
     </row>
     <row r="72" spans="3:5">
@@ -22828,7 +22825,7 @@
         <v>43801.9486111111</v>
       </c>
       <c r="E72" s="1">
-        <v>43801.9486111111</v>
+        <v>43827.675</v>
       </c>
     </row>
     <row r="73" spans="3:5">
@@ -22836,7 +22833,7 @@
         <v>43802.0944444444</v>
       </c>
       <c r="E73" s="1">
-        <v>43802.0944444444</v>
+        <v>43827.7125</v>
       </c>
     </row>
     <row r="74" spans="3:5">
@@ -22844,7 +22841,7 @@
         <v>43802.1527777778</v>
       </c>
       <c r="E74" s="1">
-        <v>43802.1527777778</v>
+        <v>43827.8111111111</v>
       </c>
     </row>
     <row r="75" spans="3:5">
@@ -22852,7 +22849,7 @@
         <v>43802.3458333333</v>
       </c>
       <c r="E75" s="1">
-        <v>43802.3458333333</v>
+        <v>43827.8611111111</v>
       </c>
     </row>
     <row r="76" spans="3:5">
@@ -22860,7 +22857,7 @@
         <v>43802.4486111111</v>
       </c>
       <c r="E76" s="1">
-        <v>43802.4486111111</v>
+        <v>43827.8888888889</v>
       </c>
     </row>
     <row r="77" spans="3:5">
@@ -22868,7 +22865,7 @@
         <v>43802.4972222222</v>
       </c>
       <c r="E77" s="1">
-        <v>43802.4972222222</v>
+        <v>43827.9069444444</v>
       </c>
     </row>
     <row r="78" spans="3:5">
@@ -22876,7 +22873,7 @@
         <v>43802.5222222222</v>
       </c>
       <c r="E78" s="1">
-        <v>43802.5222222222</v>
+        <v>43827.9472222222</v>
       </c>
     </row>
     <row r="79" spans="3:5">
@@ -22884,7 +22881,7 @@
         <v>43802.5458333333</v>
       </c>
       <c r="E79" s="1">
-        <v>43802.5458333333</v>
+        <v>43827.9513888889</v>
       </c>
     </row>
     <row r="80" spans="3:5">
@@ -22892,7 +22889,7 @@
         <v>43802.5708333333</v>
       </c>
       <c r="E80" s="1">
-        <v>43802.5708333333</v>
+        <v>43828.0111111111</v>
       </c>
     </row>
     <row r="81" spans="3:5">
@@ -22900,7 +22897,7 @@
         <v>43802.6986111111</v>
       </c>
       <c r="E81" s="1">
-        <v>43802.6986111111</v>
+        <v>43828.0125</v>
       </c>
     </row>
     <row r="82" spans="3:5">
@@ -22908,7 +22905,7 @@
         <v>43802.7361111111</v>
       </c>
       <c r="E82" s="1">
-        <v>43802.7361111111</v>
+        <v>43828.1583333333</v>
       </c>
     </row>
     <row r="83" spans="3:5">
@@ -22916,7 +22913,7 @@
         <v>43802.8097222222</v>
       </c>
       <c r="E83" s="1">
-        <v>43802.8097222222</v>
+        <v>43828.1916666667</v>
       </c>
     </row>
     <row r="84" spans="3:5">
@@ -22924,7 +22921,7 @@
         <v>43803.2111111111</v>
       </c>
       <c r="E84" s="1">
-        <v>43803.2111111111</v>
+        <v>43828.2041666667</v>
       </c>
     </row>
     <row r="85" spans="3:5">
@@ -22932,7 +22929,7 @@
         <v>43803.2569444444</v>
       </c>
       <c r="E85" s="1">
-        <v>43803.2569444444</v>
+        <v>43828.5291666667</v>
       </c>
     </row>
     <row r="86" spans="3:5">
@@ -22940,7 +22937,7 @@
         <v>43803.2819444444</v>
       </c>
       <c r="E86" s="1">
-        <v>43803.2819444444</v>
+        <v>43828.6819444444</v>
       </c>
     </row>
     <row r="87" spans="3:5">
@@ -22948,7 +22945,7 @@
         <v>43803.3333333333</v>
       </c>
       <c r="E87" s="1">
-        <v>43803.3333333333</v>
+        <v>43828.6986111111</v>
       </c>
     </row>
     <row r="88" spans="3:5">
@@ -22956,7 +22953,7 @@
         <v>43803.3944444444</v>
       </c>
       <c r="E88" s="1">
-        <v>43803.3944444444</v>
+        <v>43828.7166666667</v>
       </c>
     </row>
     <row r="89" spans="3:5">
@@ -22964,7 +22961,7 @@
         <v>43803.4847222222</v>
       </c>
       <c r="E89" s="1">
-        <v>43803.4847222222</v>
+        <v>43828.8222222222</v>
       </c>
     </row>
     <row r="90" spans="3:5">
@@ -22972,7 +22969,7 @@
         <v>43803.5097222222</v>
       </c>
       <c r="E90" s="1">
-        <v>43803.5097222222</v>
+        <v>43828.8430555556</v>
       </c>
     </row>
     <row r="91" spans="3:5">
@@ -22980,7 +22977,7 @@
         <v>43803.5555555556</v>
       </c>
       <c r="E91" s="1">
-        <v>43803.5555555556</v>
+        <v>43828.8680555556</v>
       </c>
     </row>
     <row r="92" spans="3:5">
@@ -22988,7 +22985,7 @@
         <v>43803.5597222222</v>
       </c>
       <c r="E92" s="1">
-        <v>43803.5597222222</v>
+        <v>43828.8763888889</v>
       </c>
     </row>
     <row r="93" spans="3:5">
@@ -22996,7 +22993,7 @@
         <v>43803.5805555556</v>
       </c>
       <c r="E93" s="1">
-        <v>43803.5805555556</v>
+        <v>43828.9069444444</v>
       </c>
     </row>
     <row r="94" spans="3:5">
@@ -23004,15 +23001,15 @@
         <v>43804.0194444444</v>
       </c>
       <c r="E94" s="1">
-        <v>43804.0194444444</v>
+        <v>43828.9111111111</v>
       </c>
     </row>
     <row r="95" spans="3:5">
       <c r="C95" s="1">
         <v>43804.0666666667</v>
       </c>
-      <c r="E95" s="1">
-        <v>43804.0666666667</v>
+      <c r="E95">
+        <v>563077300</v>
       </c>
     </row>
     <row r="96" spans="3:5">
@@ -23020,2780 +23017,1737 @@
         <v>43804.1305555556</v>
       </c>
       <c r="E96" s="1">
-        <v>43804.1305555556</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
+        <v>43827.6694444444</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
       <c r="C97" s="1">
         <v>43804.1569444444</v>
       </c>
-      <c r="E97" s="1">
-        <v>43804.1569444444</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
+    </row>
+    <row r="98" spans="3:3">
       <c r="C98" s="1">
         <v>43804.3180555556</v>
       </c>
-      <c r="E98" s="1">
-        <v>43804.3180555556</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5">
+    </row>
+    <row r="99" spans="3:3">
       <c r="C99" s="1">
         <v>43804.3555555556</v>
       </c>
-      <c r="E99" s="1">
-        <v>43804.3555555556</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5">
+    </row>
+    <row r="100" spans="3:3">
       <c r="C100" s="1">
         <v>43804.4180555556</v>
       </c>
-      <c r="E100" s="1">
-        <v>43804.4180555556</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
+    </row>
+    <row r="101" spans="3:3">
       <c r="C101" s="1">
         <v>43804.5152777778</v>
       </c>
-      <c r="E101" s="1">
-        <v>43804.5152777778</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5">
+    </row>
+    <row r="102" spans="3:3">
       <c r="C102" s="1">
         <v>43804.5652777778</v>
       </c>
-      <c r="E102" s="1">
-        <v>43804.5652777778</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
+    </row>
+    <row r="103" spans="3:3">
       <c r="C103" s="1">
         <v>43804.7333333333</v>
       </c>
-      <c r="E103" s="1">
-        <v>43804.7333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5">
+    </row>
+    <row r="104" spans="3:3">
       <c r="C104" s="1">
         <v>43805.0736111111</v>
       </c>
-      <c r="E104" s="1">
-        <v>43805.0736111111</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
+    </row>
+    <row r="105" spans="3:3">
       <c r="C105" s="1">
         <v>43805.2791666667</v>
       </c>
-      <c r="E105" s="1">
-        <v>43805.2791666667</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5">
+    </row>
+    <row r="106" spans="3:3">
       <c r="C106" s="1">
         <v>43805.3013888889</v>
       </c>
-      <c r="E106" s="1">
-        <v>43805.3013888889</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5">
+    </row>
+    <row r="107" spans="3:3">
       <c r="C107" s="1">
         <v>43805.3236111111</v>
       </c>
-      <c r="E107" s="1">
-        <v>43805.3236111111</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
+    </row>
+    <row r="108" spans="3:3">
       <c r="C108" s="1">
         <v>43805.4027777778</v>
       </c>
-      <c r="E108" s="1">
-        <v>43805.4027777778</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5">
+    </row>
+    <row r="109" spans="3:3">
       <c r="C109" s="1">
         <v>43805.4263888889</v>
       </c>
-      <c r="E109" s="1">
-        <v>43805.4263888889</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5">
+    </row>
+    <row r="110" spans="3:3">
       <c r="C110" s="1">
         <v>43805.5041666667</v>
       </c>
-      <c r="E110" s="1">
-        <v>43805.5041666667</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5">
+    </row>
+    <row r="111" spans="3:3">
       <c r="C111" s="1">
         <v>43805.8</v>
       </c>
-      <c r="E111" s="1">
-        <v>43805.8</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5">
+    </row>
+    <row r="112" spans="3:3">
       <c r="C112" s="1">
         <v>43806.1777777778</v>
       </c>
-      <c r="E112" s="1">
-        <v>43806.1777777778</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5">
+    </row>
+    <row r="113" spans="3:3">
       <c r="C113" s="1">
         <v>43806.3847222222</v>
       </c>
-      <c r="E113" s="1">
-        <v>43806.3847222222</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5">
+    </row>
+    <row r="114" spans="3:3">
       <c r="C114" s="1">
         <v>43806.4125</v>
       </c>
-      <c r="E114" s="1">
-        <v>43806.4125</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5">
+    </row>
+    <row r="115" spans="3:3">
       <c r="C115" s="1">
         <v>43806.5125</v>
       </c>
-      <c r="E115" s="1">
-        <v>43806.5125</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5">
+    </row>
+    <row r="116" spans="3:3">
       <c r="C116" s="1">
         <v>43806.8958333333</v>
       </c>
-      <c r="E116" s="1">
-        <v>43806.8958333333</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
+    </row>
+    <row r="117" spans="3:3">
       <c r="C117" s="1">
         <v>43807.125</v>
       </c>
-      <c r="E117" s="1">
-        <v>43807.125</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5">
+    </row>
+    <row r="118" spans="3:3">
       <c r="C118" s="1">
         <v>43807.1486111111</v>
       </c>
-      <c r="E118" s="1">
-        <v>43807.1486111111</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5">
+    </row>
+    <row r="119" spans="3:3">
       <c r="C119" s="1">
         <v>43807.1736111111</v>
       </c>
-      <c r="E119" s="1">
-        <v>43807.1736111111</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5">
+    </row>
+    <row r="120" spans="3:3">
       <c r="C120" s="1">
         <v>43807.3722222222</v>
       </c>
-      <c r="E120" s="1">
-        <v>43807.3722222222</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5">
+    </row>
+    <row r="121" spans="3:3">
       <c r="C121" s="1">
         <v>43807.6138888889</v>
       </c>
-      <c r="E121" s="1">
-        <v>43807.6138888889</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5">
+    </row>
+    <row r="122" spans="3:3">
       <c r="C122" s="1">
         <v>43807.6791666667</v>
       </c>
-      <c r="E122" s="1">
-        <v>43807.6791666667</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5">
+    </row>
+    <row r="123" spans="3:3">
       <c r="C123" s="1">
         <v>43807.7555555556</v>
       </c>
-      <c r="E123" s="1">
-        <v>43807.7555555556</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5">
+    </row>
+    <row r="124" spans="3:3">
       <c r="C124" s="1">
         <v>43807.9041666667</v>
       </c>
-      <c r="E124" s="1">
-        <v>43807.9041666667</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5">
+    </row>
+    <row r="125" spans="3:3">
       <c r="C125" s="1">
         <v>43808.1333333333</v>
       </c>
-      <c r="E125" s="1">
-        <v>43808.1333333333</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5">
+    </row>
+    <row r="126" spans="3:3">
       <c r="C126" s="1">
         <v>43808.1555555556</v>
       </c>
-      <c r="E126" s="1">
-        <v>43808.1555555556</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5">
+    </row>
+    <row r="127" spans="3:3">
       <c r="C127" s="1">
         <v>43808.1597222222</v>
       </c>
-      <c r="E127" s="1">
-        <v>43808.1597222222</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5">
+    </row>
+    <row r="128" spans="3:3">
       <c r="C128" s="1">
         <v>43808.2055555556</v>
       </c>
-      <c r="E128" s="1">
-        <v>43808.2055555556</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5">
+    </row>
+    <row r="129" spans="3:3">
       <c r="C129" s="1">
         <v>43808.3555555556</v>
       </c>
-      <c r="E129" s="1">
-        <v>43808.3555555556</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
+    </row>
+    <row r="130" spans="3:3">
       <c r="C130" s="1">
         <v>43808.4069444444</v>
       </c>
-      <c r="E130" s="1">
-        <v>43808.4069444444</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5">
+    </row>
+    <row r="131" spans="3:3">
       <c r="C131" s="1">
         <v>43808.4555555556</v>
       </c>
-      <c r="E131" s="1">
-        <v>43808.4555555556</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5">
+    </row>
+    <row r="132" spans="3:3">
       <c r="C132" s="1">
         <v>43808.5513888889</v>
       </c>
-      <c r="E132" s="1">
-        <v>43808.5513888889</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
+    </row>
+    <row r="133" spans="3:3">
       <c r="C133" s="1">
         <v>43808.7013888889</v>
       </c>
-      <c r="E133" s="1">
-        <v>43808.7013888889</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5">
+    </row>
+    <row r="134" spans="3:3">
       <c r="C134" s="1">
         <v>43808.9625</v>
       </c>
-      <c r="E134" s="1">
-        <v>43808.9625</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
+    </row>
+    <row r="135" spans="3:3">
       <c r="C135">
         <v>477548400</v>
       </c>
-      <c r="E135">
-        <v>477548400</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5">
+    </row>
+    <row r="136" spans="3:3">
       <c r="C136" s="1">
         <v>43800.2597222222</v>
       </c>
-      <c r="E136" s="1">
-        <v>43800.2597222222</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
+    </row>
+    <row r="137" spans="3:3">
       <c r="C137" s="1">
         <v>43800.5069444444</v>
       </c>
-      <c r="E137" s="1">
-        <v>43800.5069444444</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
+    </row>
+    <row r="138" spans="3:3">
       <c r="C138" s="1">
         <v>43800.6541666667</v>
       </c>
-      <c r="E138" s="1">
-        <v>43800.6541666667</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5">
+    </row>
+    <row r="139" spans="3:3">
       <c r="C139" s="1">
         <v>43800.6555555556</v>
       </c>
-      <c r="E139" s="1">
-        <v>43800.6555555556</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5">
+    </row>
+    <row r="140" spans="3:3">
       <c r="C140" s="1">
         <v>43800.7444444444</v>
       </c>
-      <c r="E140" s="1">
-        <v>43800.7444444444</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5">
+    </row>
+    <row r="141" spans="3:3">
       <c r="C141" s="1">
         <v>43800.9902777778</v>
       </c>
-      <c r="E141" s="1">
-        <v>43800.9902777778</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5">
+    </row>
+    <row r="142" spans="3:3">
       <c r="C142" s="1">
         <v>43801.2208333333</v>
       </c>
-      <c r="E142" s="1">
-        <v>43801.2208333333</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5">
+    </row>
+    <row r="143" spans="3:3">
       <c r="C143" s="1">
         <v>43801.5875</v>
       </c>
-      <c r="E143" s="1">
-        <v>43801.5875</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5">
+    </row>
+    <row r="144" spans="3:3">
       <c r="C144" s="1">
         <v>43801.6138888889</v>
       </c>
-      <c r="E144" s="1">
-        <v>43801.6138888889</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5">
+    </row>
+    <row r="145" spans="3:3">
       <c r="C145" s="1">
         <v>43801.6166666667</v>
       </c>
-      <c r="E145" s="1">
-        <v>43801.6166666667</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5">
+    </row>
+    <row r="146" spans="3:3">
       <c r="C146" s="1">
         <v>43801.6513888889</v>
       </c>
-      <c r="E146" s="1">
-        <v>43801.6513888889</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5">
+    </row>
+    <row r="147" spans="3:3">
       <c r="C147" s="1">
         <v>43801.8097222222</v>
       </c>
-      <c r="E147" s="1">
-        <v>43801.8097222222</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5">
+    </row>
+    <row r="148" spans="3:3">
       <c r="C148" s="1">
         <v>43801.8444444444</v>
       </c>
-      <c r="E148" s="1">
-        <v>43801.8444444444</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5">
+    </row>
+    <row r="149" spans="3:3">
       <c r="C149" s="1">
         <v>43801.9166666667</v>
       </c>
-      <c r="E149" s="1">
-        <v>43801.9166666667</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5">
+    </row>
+    <row r="150" spans="3:3">
       <c r="C150" s="1">
         <v>43801.9555555556</v>
       </c>
-      <c r="E150" s="1">
-        <v>43801.9555555556</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5">
+    </row>
+    <row r="151" spans="3:3">
       <c r="C151" s="1">
         <v>43801.9652777778</v>
       </c>
-      <c r="E151" s="1">
-        <v>43801.9652777778</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5">
+    </row>
+    <row r="152" spans="3:3">
       <c r="C152" s="1">
         <v>43802</v>
       </c>
-      <c r="E152" s="1">
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5">
+    </row>
+    <row r="153" spans="3:3">
       <c r="C153" s="1">
         <v>43802.0027777778</v>
       </c>
-      <c r="E153" s="1">
-        <v>43802.0027777778</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5">
+    </row>
+    <row r="154" spans="3:3">
       <c r="C154" s="1">
         <v>43802.0152777778</v>
       </c>
-      <c r="E154" s="1">
-        <v>43802.0152777778</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5">
+    </row>
+    <row r="155" spans="3:3">
       <c r="C155" s="1">
         <v>43802.0319444444</v>
       </c>
-      <c r="E155" s="1">
-        <v>43802.0319444444</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5">
+    </row>
+    <row r="156" spans="3:3">
       <c r="C156" s="1">
         <v>43802.0638888889</v>
       </c>
-      <c r="E156" s="1">
-        <v>43802.0638888889</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5">
+    </row>
+    <row r="157" spans="3:3">
       <c r="C157">
         <v>414436000</v>
       </c>
-      <c r="E157">
-        <v>414436000</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5">
+    </row>
+    <row r="158" spans="3:3">
       <c r="C158" s="1">
         <v>43802.7430555556</v>
       </c>
-      <c r="E158" s="1">
-        <v>43802.7430555556</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5">
+    </row>
+    <row r="159" spans="3:3">
       <c r="C159" s="1">
         <v>43802.8194444444</v>
       </c>
-      <c r="E159" s="1">
-        <v>43802.8194444444</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5">
+    </row>
+    <row r="160" spans="3:3">
       <c r="C160">
         <v>477150500</v>
       </c>
-      <c r="E160">
-        <v>477150500</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5">
+    </row>
+    <row r="161" spans="3:3">
       <c r="C161" s="1">
         <v>43800.2305555556</v>
       </c>
-      <c r="E161" s="1">
-        <v>43800.2305555556</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5">
+    </row>
+    <row r="162" spans="3:3">
       <c r="C162" s="1">
         <v>43800.3097222222</v>
       </c>
-      <c r="E162" s="1">
-        <v>43800.3097222222</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5">
+    </row>
+    <row r="163" spans="3:3">
       <c r="C163" s="1">
         <v>43800.4416666667</v>
       </c>
-      <c r="E163" s="1">
-        <v>43800.4416666667</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5">
+    </row>
+    <row r="164" spans="3:3">
       <c r="C164" s="1">
         <v>43800.5680555556</v>
       </c>
-      <c r="E164" s="1">
-        <v>43800.5680555556</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5">
+    </row>
+    <row r="165" spans="3:3">
       <c r="C165" s="1">
         <v>43800.6541666667</v>
       </c>
-      <c r="E165" s="1">
-        <v>43800.6541666667</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5">
+    </row>
+    <row r="166" spans="3:3">
       <c r="C166" s="1">
         <v>43800.7430555556</v>
       </c>
-      <c r="E166" s="1">
-        <v>43800.7430555556</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5">
+    </row>
+    <row r="167" spans="3:3">
       <c r="C167" s="1">
         <v>43800.8180555556</v>
       </c>
-      <c r="E167" s="1">
-        <v>43800.8180555556</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5">
+    </row>
+    <row r="168" spans="3:3">
       <c r="C168" s="1">
         <v>43801.0388888889</v>
       </c>
-      <c r="E168" s="1">
-        <v>43801.0388888889</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5">
+    </row>
+    <row r="169" spans="3:3">
       <c r="C169" s="1">
         <v>43801.3152777778</v>
       </c>
-      <c r="E169" s="1">
-        <v>43801.3152777778</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5">
+    </row>
+    <row r="170" spans="3:3">
       <c r="C170" s="1">
         <v>43801.3375</v>
       </c>
-      <c r="E170" s="1">
-        <v>43801.3375</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5">
+    </row>
+    <row r="171" spans="3:3">
       <c r="C171" s="1">
         <v>43801.4</v>
       </c>
-      <c r="E171" s="1">
-        <v>43801.4</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5">
+    </row>
+    <row r="172" spans="3:3">
       <c r="C172" s="1">
         <v>43801.6083333333</v>
       </c>
-      <c r="E172" s="1">
-        <v>43801.6083333333</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5">
+    </row>
+    <row r="173" spans="3:3">
       <c r="C173" s="1">
         <v>43801.7041666667</v>
       </c>
-      <c r="E173" s="1">
-        <v>43801.7041666667</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5">
+    </row>
+    <row r="174" spans="3:3">
       <c r="C174" s="1">
         <v>43801.7763888889</v>
       </c>
-      <c r="E174" s="1">
-        <v>43801.7763888889</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5">
+    </row>
+    <row r="175" spans="3:3">
       <c r="C175" s="1">
         <v>43802.0097222222</v>
       </c>
-      <c r="E175" s="1">
-        <v>43802.0097222222</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5">
+    </row>
+    <row r="176" spans="3:3">
       <c r="C176" s="1">
         <v>43802.2</v>
       </c>
-      <c r="E176" s="1">
-        <v>43802.2</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
+    </row>
+    <row r="177" spans="3:3">
       <c r="C177" s="1">
         <v>43802.2208333333</v>
       </c>
-      <c r="E177" s="1">
-        <v>43802.2208333333</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5">
+    </row>
+    <row r="178" spans="3:3">
       <c r="C178" s="1">
         <v>43802.3013888889</v>
       </c>
-      <c r="E178" s="1">
-        <v>43802.3013888889</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5">
+    </row>
+    <row r="179" spans="3:3">
       <c r="C179" s="1">
         <v>43802.4986111111</v>
       </c>
-      <c r="E179" s="1">
-        <v>43802.4986111111</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
+    </row>
+    <row r="180" spans="3:3">
       <c r="C180" s="1">
         <v>43802.5236111111</v>
       </c>
-      <c r="E180" s="1">
-        <v>43802.5236111111</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5">
+    </row>
+    <row r="181" spans="3:3">
       <c r="C181" s="1">
         <v>43802.5625</v>
       </c>
-      <c r="E181" s="1">
-        <v>43802.5625</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5">
+    </row>
+    <row r="182" spans="3:3">
       <c r="C182" s="1">
         <v>43802.6319444444</v>
       </c>
-      <c r="E182" s="1">
-        <v>43802.6319444444</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5">
+    </row>
+    <row r="183" spans="3:3">
       <c r="C183" s="1">
         <v>43802.7361111111</v>
       </c>
-      <c r="E183" s="1">
-        <v>43802.7361111111</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5">
+    </row>
+    <row r="184" spans="3:3">
       <c r="C184" s="1">
         <v>43802.9583333333</v>
       </c>
-      <c r="E184" s="1">
-        <v>43802.9583333333</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5">
+    </row>
+    <row r="185" spans="3:3">
       <c r="C185" s="1">
         <v>43803.1888888889</v>
       </c>
-      <c r="E185" s="1">
-        <v>43803.1888888889</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5">
+    </row>
+    <row r="186" spans="3:3">
       <c r="C186" s="1">
         <v>43803.2125</v>
       </c>
-      <c r="E186" s="1">
-        <v>43803.2125</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
+    </row>
+    <row r="187" spans="3:3">
       <c r="C187" s="1">
         <v>43803.2583333333</v>
       </c>
-      <c r="E187" s="1">
-        <v>43803.2583333333</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5">
+    </row>
+    <row r="188" spans="3:3">
       <c r="C188" s="1">
         <v>43803.3944444444</v>
       </c>
-      <c r="E188" s="1">
-        <v>43803.3944444444</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5">
+    </row>
+    <row r="189" spans="3:3">
       <c r="C189" s="1">
         <v>43803.4583333333</v>
       </c>
-      <c r="E189" s="1">
-        <v>43803.4583333333</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5">
+    </row>
+    <row r="190" spans="3:3">
       <c r="C190" s="1">
         <v>43803.6972222222</v>
       </c>
-      <c r="E190" s="1">
-        <v>43803.6972222222</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5">
+    </row>
+    <row r="191" spans="3:3">
       <c r="C191" s="1">
         <v>43803.7208333333</v>
       </c>
-      <c r="E191" s="1">
-        <v>43803.7208333333</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5">
+    </row>
+    <row r="192" spans="3:3">
       <c r="C192" s="1">
         <v>43804.0569444444</v>
       </c>
-      <c r="E192" s="1">
-        <v>43804.0569444444</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
+    </row>
+    <row r="193" spans="3:3">
       <c r="C193" s="1">
         <v>43804.4180555556</v>
       </c>
-      <c r="E193" s="1">
-        <v>43804.4180555556</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5">
+    </row>
+    <row r="194" spans="3:3">
       <c r="C194" s="1">
         <v>43804.4416666667</v>
       </c>
-      <c r="E194" s="1">
-        <v>43804.4416666667</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
+    </row>
+    <row r="195" spans="3:3">
       <c r="C195" s="1">
         <v>43804.4861111111</v>
       </c>
-      <c r="E195" s="1">
-        <v>43804.4861111111</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
+    </row>
+    <row r="196" spans="3:3">
       <c r="C196" s="1">
         <v>43805.0791666667</v>
       </c>
-      <c r="E196" s="1">
-        <v>43805.0791666667</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5">
+    </row>
+    <row r="197" spans="3:3">
       <c r="C197" s="1">
         <v>43805.1555555556</v>
       </c>
-      <c r="E197" s="1">
-        <v>43805.1555555556</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
+    </row>
+    <row r="198" spans="3:3">
       <c r="C198" s="1">
         <v>43805.2041666667</v>
       </c>
-      <c r="E198" s="1">
-        <v>43805.2041666667</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5">
+    </row>
+    <row r="199" spans="3:3">
       <c r="C199" s="1">
         <v>43805.4041666667</v>
       </c>
-      <c r="E199" s="1">
-        <v>43805.4041666667</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5">
+    </row>
+    <row r="200" spans="3:3">
       <c r="C200" s="1">
         <v>43805.4222222222</v>
       </c>
-      <c r="E200" s="1">
-        <v>43805.4222222222</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
+    </row>
+    <row r="201" spans="3:3">
       <c r="C201" s="1">
         <v>43805.6069444444</v>
       </c>
-      <c r="E201" s="1">
-        <v>43805.6069444444</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5">
+    </row>
+    <row r="202" spans="3:3">
       <c r="C202" s="1">
         <v>43805.6902777778</v>
       </c>
-      <c r="E202" s="1">
-        <v>43805.6902777778</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
+    </row>
+    <row r="203" spans="3:3">
       <c r="C203" s="1">
         <v>43806.1402777778</v>
       </c>
-      <c r="E203" s="1">
-        <v>43806.1402777778</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
+    </row>
+    <row r="204" spans="3:3">
       <c r="C204" s="1">
         <v>43806.4125</v>
       </c>
-      <c r="E204" s="1">
-        <v>43806.4125</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
+    </row>
+    <row r="205" spans="3:3">
       <c r="C205" s="1">
         <v>43806.6513888889</v>
       </c>
-      <c r="E205" s="1">
-        <v>43806.6513888889</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
+    </row>
+    <row r="206" spans="3:3">
       <c r="C206" s="1">
         <v>43807.0583333333</v>
       </c>
-      <c r="E206" s="1">
-        <v>43807.0583333333</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
+    </row>
+    <row r="207" spans="3:3">
       <c r="C207" s="1">
         <v>43807.175</v>
       </c>
-      <c r="E207" s="1">
-        <v>43807.175</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
+    </row>
+    <row r="208" spans="3:3">
       <c r="C208" s="1">
         <v>43807.3722222222</v>
       </c>
-      <c r="E208" s="1">
-        <v>43807.3722222222</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5">
+    </row>
+    <row r="209" spans="3:3">
       <c r="C209" s="1">
         <v>43807.3958333333</v>
       </c>
-      <c r="E209" s="1">
-        <v>43807.3958333333</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5">
+    </row>
+    <row r="210" spans="3:3">
       <c r="C210" s="1">
         <v>43808.1597222222</v>
       </c>
-      <c r="E210" s="1">
-        <v>43808.1597222222</v>
-      </c>
-    </row>
-    <row r="211" spans="3:5">
+    </row>
+    <row r="211" spans="3:3">
       <c r="C211" s="1">
         <v>43808.3833333333</v>
       </c>
-      <c r="E211" s="1">
-        <v>43808.3833333333</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5">
+    </row>
+    <row r="212" spans="3:3">
       <c r="C212" s="1">
         <v>43808.4125</v>
       </c>
-      <c r="E212" s="1">
-        <v>43808.4125</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5">
+    </row>
+    <row r="213" spans="3:3">
       <c r="C213" s="1">
         <v>43808.6333333333</v>
       </c>
-      <c r="E213" s="1">
-        <v>43808.6333333333</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5">
+    </row>
+    <row r="214" spans="3:3">
       <c r="C214">
         <v>413828000</v>
       </c>
-      <c r="E214">
-        <v>413828000</v>
-      </c>
-    </row>
-    <row r="215" spans="3:5">
+    </row>
+    <row r="215" spans="3:3">
       <c r="C215" s="1">
         <v>43800.2472222222</v>
       </c>
-      <c r="E215" s="1">
-        <v>43800.2472222222</v>
-      </c>
-    </row>
-    <row r="216" spans="3:5">
+    </row>
+    <row r="216" spans="3:3">
       <c r="C216" s="1">
         <v>43800.2736111111</v>
       </c>
-      <c r="E216" s="1">
-        <v>43800.2736111111</v>
-      </c>
-    </row>
-    <row r="217" spans="3:5">
+    </row>
+    <row r="217" spans="3:3">
       <c r="C217" s="1">
         <v>43800.3180555556</v>
       </c>
-      <c r="E217" s="1">
-        <v>43800.3180555556</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5">
+    </row>
+    <row r="218" spans="3:3">
       <c r="C218" s="1">
         <v>43801.9513888889</v>
       </c>
-      <c r="E218" s="1">
-        <v>43801.9513888889</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5">
+    </row>
+    <row r="219" spans="3:3">
       <c r="C219" s="1">
         <v>43801.9527777778</v>
       </c>
-      <c r="E219" s="1">
-        <v>43801.9527777778</v>
-      </c>
-    </row>
-    <row r="220" spans="3:5">
+    </row>
+    <row r="220" spans="3:3">
       <c r="C220" s="1">
         <v>43801.9597222222</v>
       </c>
-      <c r="E220" s="1">
-        <v>43801.9597222222</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5">
+    </row>
+    <row r="221" spans="3:3">
       <c r="C221" s="1">
         <v>43801.975</v>
       </c>
-      <c r="E221" s="1">
-        <v>43801.975</v>
-      </c>
-    </row>
-    <row r="222" spans="3:5">
+    </row>
+    <row r="222" spans="3:3">
       <c r="C222" s="1">
         <v>43802.0069444444</v>
       </c>
-      <c r="E222" s="1">
-        <v>43802.0069444444</v>
-      </c>
-    </row>
-    <row r="223" spans="3:5">
+    </row>
+    <row r="223" spans="3:3">
       <c r="C223" s="1">
         <v>43802.0430555556</v>
       </c>
-      <c r="E223" s="1">
-        <v>43802.0430555556</v>
-      </c>
-    </row>
-    <row r="224" spans="3:5">
+    </row>
+    <row r="224" spans="3:3">
       <c r="C224" s="1">
         <v>43804.1888888889</v>
       </c>
-      <c r="E224" s="1">
-        <v>43804.1888888889</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5">
+    </row>
+    <row r="225" spans="3:3">
       <c r="C225" s="1">
         <v>43804.6111111111</v>
       </c>
-      <c r="E225" s="1">
-        <v>43804.6111111111</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5">
+    </row>
+    <row r="226" spans="3:3">
       <c r="C226" s="1">
         <v>43805.65</v>
       </c>
-      <c r="E226" s="1">
-        <v>43805.65</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5">
+    </row>
+    <row r="227" spans="3:3">
       <c r="C227" s="1">
         <v>43805.6722222222</v>
       </c>
-      <c r="E227" s="1">
-        <v>43805.6722222222</v>
-      </c>
-    </row>
-    <row r="228" spans="3:5">
+    </row>
+    <row r="228" spans="3:3">
       <c r="C228" s="1">
         <v>43807.5319444444</v>
       </c>
-      <c r="E228" s="1">
-        <v>43807.5319444444</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5">
+    </row>
+    <row r="229" spans="3:3">
       <c r="C229" s="1">
         <v>43808.3791666667</v>
       </c>
-      <c r="E229" s="1">
-        <v>43808.3791666667</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5">
+    </row>
+    <row r="230" spans="3:3">
       <c r="C230">
         <v>419001327</v>
       </c>
-      <c r="E230">
-        <v>419001327</v>
-      </c>
-    </row>
-    <row r="231" spans="3:5">
+    </row>
+    <row r="231" spans="3:3">
       <c r="C231" s="1">
         <v>43801.9916666667</v>
       </c>
-      <c r="E231" s="1">
-        <v>43801.9916666667</v>
-      </c>
-    </row>
-    <row r="232" spans="3:5">
+    </row>
+    <row r="232" spans="3:3">
       <c r="C232" s="1">
         <v>43802.725</v>
       </c>
-      <c r="E232" s="1">
-        <v>43802.725</v>
-      </c>
-    </row>
-    <row r="233" spans="3:5">
+    </row>
+    <row r="233" spans="3:3">
       <c r="C233" s="1">
         <v>43803.3083333333</v>
       </c>
-      <c r="E233" s="1">
-        <v>43803.3083333333</v>
-      </c>
-    </row>
-    <row r="234" spans="3:5">
+    </row>
+    <row r="234" spans="3:3">
       <c r="C234">
         <v>477686500</v>
       </c>
-      <c r="E234">
-        <v>477686500</v>
-      </c>
-    </row>
-    <row r="235" spans="3:5">
+    </row>
+    <row r="235" spans="3:3">
       <c r="C235" s="1">
         <v>43800.0930555556</v>
       </c>
-      <c r="E235" s="1">
-        <v>43800.0930555556</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5">
+    </row>
+    <row r="236" spans="3:3">
       <c r="C236" s="1">
         <v>43800.5</v>
       </c>
-      <c r="E236" s="1">
-        <v>43800.5</v>
-      </c>
-    </row>
-    <row r="237" spans="3:5">
+    </row>
+    <row r="237" spans="3:3">
       <c r="C237" s="1">
         <v>43802.2611111111</v>
       </c>
-      <c r="E237" s="1">
-        <v>43802.2611111111</v>
-      </c>
-    </row>
-    <row r="238" spans="3:5">
+    </row>
+    <row r="238" spans="3:3">
       <c r="C238" s="1">
         <v>43802.9763888889</v>
       </c>
-      <c r="E238" s="1">
-        <v>43802.9763888889</v>
-      </c>
-    </row>
-    <row r="239" spans="3:5">
+    </row>
+    <row r="239" spans="3:3">
       <c r="C239" s="1">
         <v>43803.0333333333</v>
       </c>
-      <c r="E239" s="1">
-        <v>43803.0333333333</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5">
+    </row>
+    <row r="240" spans="3:3">
       <c r="C240" s="1">
         <v>43803.0694444444</v>
       </c>
-      <c r="E240" s="1">
-        <v>43803.0694444444</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5">
+    </row>
+    <row r="241" spans="3:3">
       <c r="C241" s="1">
         <v>43803.4708333333</v>
       </c>
-      <c r="E241" s="1">
-        <v>43803.4708333333</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5">
+    </row>
+    <row r="242" spans="3:3">
       <c r="C242" s="1">
         <v>43804.0916666667</v>
       </c>
-      <c r="E242" s="1">
-        <v>43804.0916666667</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5">
+    </row>
+    <row r="243" spans="3:3">
       <c r="C243" s="1">
         <v>43804.3513888889</v>
       </c>
-      <c r="E243" s="1">
-        <v>43804.3513888889</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5">
+    </row>
+    <row r="244" spans="3:3">
       <c r="C244" s="1">
         <v>43804.4041666667</v>
       </c>
-      <c r="E244" s="1">
-        <v>43804.4041666667</v>
-      </c>
-    </row>
-    <row r="245" spans="3:5">
+    </row>
+    <row r="245" spans="3:3">
       <c r="C245" s="1">
         <v>43804.7666666667</v>
       </c>
-      <c r="E245" s="1">
-        <v>43804.7666666667</v>
-      </c>
-    </row>
-    <row r="246" spans="3:5">
+    </row>
+    <row r="246" spans="3:3">
       <c r="C246" s="1">
         <v>43805.0111111111</v>
       </c>
-      <c r="E246" s="1">
-        <v>43805.0111111111</v>
-      </c>
-    </row>
-    <row r="247" spans="3:5">
+    </row>
+    <row r="247" spans="3:3">
       <c r="C247" s="1">
         <v>43805.0388888889</v>
       </c>
-      <c r="E247" s="1">
-        <v>43805.0388888889</v>
-      </c>
-    </row>
-    <row r="248" spans="3:5">
+    </row>
+    <row r="248" spans="3:3">
       <c r="C248" s="1">
         <v>43805.1055555556</v>
       </c>
-      <c r="E248" s="1">
-        <v>43805.1055555556</v>
-      </c>
-    </row>
-    <row r="249" spans="3:5">
+    </row>
+    <row r="249" spans="3:3">
       <c r="C249" s="1">
         <v>43805.3583333333</v>
       </c>
-      <c r="E249" s="1">
-        <v>43805.3583333333</v>
-      </c>
-    </row>
-    <row r="250" spans="3:5">
+    </row>
+    <row r="250" spans="3:3">
       <c r="C250" s="1">
         <v>43805.4444444444</v>
       </c>
-      <c r="E250" s="1">
-        <v>43805.4444444444</v>
-      </c>
-    </row>
-    <row r="251" spans="3:5">
+    </row>
+    <row r="251" spans="3:3">
       <c r="C251" s="1">
         <v>43805.9375</v>
       </c>
-      <c r="E251" s="1">
-        <v>43805.9375</v>
-      </c>
-    </row>
-    <row r="252" spans="3:5">
+    </row>
+    <row r="252" spans="3:3">
       <c r="C252" s="1">
         <v>43806.0388888889</v>
       </c>
-      <c r="E252" s="1">
-        <v>43806.0388888889</v>
-      </c>
-    </row>
-    <row r="253" spans="3:5">
+    </row>
+    <row r="253" spans="3:3">
       <c r="C253" s="1">
         <v>43806.9902777778</v>
       </c>
-      <c r="E253" s="1">
-        <v>43806.9902777778</v>
-      </c>
-    </row>
-    <row r="254" spans="3:5">
+    </row>
+    <row r="254" spans="3:3">
       <c r="C254" s="1">
         <v>43807.0652777778</v>
       </c>
-      <c r="E254" s="1">
-        <v>43807.0652777778</v>
-      </c>
-    </row>
-    <row r="255" spans="3:5">
+    </row>
+    <row r="255" spans="3:3">
       <c r="C255" s="1">
         <v>43807.1361111111</v>
       </c>
-      <c r="E255" s="1">
-        <v>43807.1361111111</v>
-      </c>
-    </row>
-    <row r="256" spans="3:5">
+    </row>
+    <row r="256" spans="3:3">
       <c r="C256" s="1">
         <v>43807.4597222222</v>
       </c>
-      <c r="E256" s="1">
-        <v>43807.4597222222</v>
-      </c>
-    </row>
-    <row r="257" spans="3:5">
+    </row>
+    <row r="257" spans="3:3">
       <c r="C257" s="1">
         <v>43807.8597222222</v>
       </c>
-      <c r="E257" s="1">
-        <v>43807.8597222222</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5">
+    </row>
+    <row r="258" spans="3:3">
       <c r="C258" s="1">
         <v>43808.1680555556</v>
       </c>
-      <c r="E258" s="1">
-        <v>43808.1680555556</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5">
+    </row>
+    <row r="259" spans="3:3">
       <c r="C259" s="1">
         <v>43808.4055555556</v>
       </c>
-      <c r="E259" s="1">
-        <v>43808.4055555556</v>
-      </c>
-    </row>
-    <row r="260" spans="3:5">
+    </row>
+    <row r="260" spans="3:3">
       <c r="C260">
         <v>372632000</v>
       </c>
-      <c r="E260">
-        <v>372632000</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5">
+    </row>
+    <row r="261" spans="3:3">
       <c r="C261" s="1">
         <v>43800.2736111111</v>
       </c>
-      <c r="E261" s="1">
-        <v>43800.2736111111</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5">
+    </row>
+    <row r="262" spans="3:3">
       <c r="C262" s="1">
         <v>43800.5125</v>
       </c>
-      <c r="E262" s="1">
-        <v>43800.5125</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5">
+    </row>
+    <row r="263" spans="3:3">
       <c r="C263" s="1">
         <v>43800.85</v>
       </c>
-      <c r="E263" s="1">
-        <v>43800.85</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5">
+    </row>
+    <row r="264" spans="3:3">
       <c r="C264" s="1">
         <v>43801.0083333333</v>
       </c>
-      <c r="E264" s="1">
-        <v>43801.0083333333</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5">
+    </row>
+    <row r="265" spans="3:3">
       <c r="C265" s="1">
         <v>43801.3972222222</v>
       </c>
-      <c r="E265" s="1">
-        <v>43801.3972222222</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5">
+    </row>
+    <row r="266" spans="3:3">
       <c r="C266" s="1">
         <v>43801.5055555556</v>
       </c>
-      <c r="E266" s="1">
-        <v>43801.5055555556</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5">
+    </row>
+    <row r="267" spans="3:3">
       <c r="C267" s="1">
         <v>43801.5569444444</v>
       </c>
-      <c r="E267" s="1">
-        <v>43801.5569444444</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5">
+    </row>
+    <row r="268" spans="3:3">
       <c r="C268" s="1">
         <v>43801.6194444444</v>
       </c>
-      <c r="E268" s="1">
-        <v>43801.6194444444</v>
-      </c>
-    </row>
-    <row r="269" spans="3:5">
+    </row>
+    <row r="269" spans="3:3">
       <c r="C269" s="1">
         <v>43801.6736111111</v>
       </c>
-      <c r="E269" s="1">
-        <v>43801.6736111111</v>
-      </c>
-    </row>
-    <row r="270" spans="3:5">
+    </row>
+    <row r="270" spans="3:3">
       <c r="C270" s="1">
         <v>43801.7041666667</v>
       </c>
-      <c r="E270" s="1">
-        <v>43801.7041666667</v>
-      </c>
-    </row>
-    <row r="271" spans="3:5">
+    </row>
+    <row r="271" spans="3:3">
       <c r="C271" s="1">
         <v>43801.8111111111</v>
       </c>
-      <c r="E271" s="1">
-        <v>43801.8111111111</v>
-      </c>
-    </row>
-    <row r="272" spans="3:5">
+    </row>
+    <row r="272" spans="3:3">
       <c r="C272" s="1">
         <v>43801.8625</v>
       </c>
-      <c r="E272" s="1">
-        <v>43801.8625</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5">
+    </row>
+    <row r="273" spans="3:3">
       <c r="C273" s="1">
         <v>43801.9236111111</v>
       </c>
-      <c r="E273" s="1">
-        <v>43801.9236111111</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5">
+    </row>
+    <row r="274" spans="3:3">
       <c r="C274" s="1">
         <v>43801.9388888889</v>
       </c>
-      <c r="E274" s="1">
-        <v>43801.9388888889</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5">
+    </row>
+    <row r="275" spans="3:3">
       <c r="C275" s="1">
         <v>43801.9444444444</v>
       </c>
-      <c r="E275" s="1">
-        <v>43801.9444444444</v>
-      </c>
-    </row>
-    <row r="276" spans="3:5">
+    </row>
+    <row r="276" spans="3:3">
       <c r="C276" s="1">
         <v>43808.8430555556</v>
       </c>
-      <c r="E276" s="1">
-        <v>43808.8430555556</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5">
+    </row>
+    <row r="277" spans="3:3">
       <c r="C277" s="1">
         <v>43808.8847222222</v>
       </c>
-      <c r="E277" s="1">
-        <v>43808.8847222222</v>
-      </c>
-    </row>
-    <row r="278" spans="3:5">
+    </row>
+    <row r="278" spans="3:3">
       <c r="C278">
         <v>636015455</v>
       </c>
-      <c r="E278">
-        <v>636015455</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5">
+    </row>
+    <row r="279" spans="3:3">
       <c r="C279" s="1">
         <v>43803.4527777778</v>
       </c>
-      <c r="E279" s="1">
-        <v>43803.4527777778</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5">
+    </row>
+    <row r="280" spans="3:3">
       <c r="C280" s="1">
         <v>43803.7</v>
       </c>
-      <c r="E280" s="1">
-        <v>43803.7</v>
-      </c>
-    </row>
-    <row r="281" spans="3:5">
+    </row>
+    <row r="281" spans="3:3">
       <c r="C281" s="1">
         <v>43804.1986111111</v>
       </c>
-      <c r="E281" s="1">
-        <v>43804.1986111111</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5">
+    </row>
+    <row r="282" spans="3:3">
       <c r="C282" s="1">
         <v>43804.4125</v>
       </c>
-      <c r="E282" s="1">
-        <v>43804.4125</v>
-      </c>
-    </row>
-    <row r="283" spans="3:5">
+    </row>
+    <row r="283" spans="3:3">
       <c r="C283" s="1">
         <v>43804.4625</v>
       </c>
-      <c r="E283" s="1">
-        <v>43804.4625</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5">
+    </row>
+    <row r="284" spans="3:3">
       <c r="C284" s="1">
         <v>43804.6833333333</v>
       </c>
-      <c r="E284" s="1">
-        <v>43804.6833333333</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5">
+    </row>
+    <row r="285" spans="3:3">
       <c r="C285" s="1">
         <v>43804.7458333333</v>
       </c>
-      <c r="E285" s="1">
-        <v>43804.7458333333</v>
-      </c>
-    </row>
-    <row r="286" spans="3:5">
+    </row>
+    <row r="286" spans="3:3">
       <c r="C286" s="1">
         <v>43805.1666666667</v>
       </c>
-      <c r="E286" s="1">
-        <v>43805.1666666667</v>
-      </c>
-    </row>
-    <row r="287" spans="3:5">
+    </row>
+    <row r="287" spans="3:3">
       <c r="C287" s="1">
         <v>43805.1958333333</v>
       </c>
-      <c r="E287" s="1">
-        <v>43805.1958333333</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5">
+    </row>
+    <row r="288" spans="3:3">
       <c r="C288" s="1">
         <v>43805.2208333333</v>
       </c>
-      <c r="E288" s="1">
-        <v>43805.2208333333</v>
-      </c>
-    </row>
-    <row r="289" spans="3:5">
+    </row>
+    <row r="289" spans="3:3">
       <c r="C289" s="1">
         <v>43805.2875</v>
       </c>
-      <c r="E289" s="1">
-        <v>43805.2875</v>
-      </c>
-    </row>
-    <row r="290" spans="3:5">
+    </row>
+    <row r="290" spans="3:3">
       <c r="C290" s="1">
         <v>43805.4027777778</v>
       </c>
-      <c r="E290" s="1">
-        <v>43805.4027777778</v>
-      </c>
-    </row>
-    <row r="291" spans="3:5">
+    </row>
+    <row r="291" spans="3:3">
       <c r="C291" s="1">
         <v>43805.6208333333</v>
       </c>
-      <c r="E291" s="1">
-        <v>43805.6208333333</v>
-      </c>
-    </row>
-    <row r="292" spans="3:5">
+    </row>
+    <row r="292" spans="3:3">
       <c r="C292" s="1">
         <v>43805.7083333333</v>
       </c>
-      <c r="E292" s="1">
-        <v>43805.7083333333</v>
-      </c>
-    </row>
-    <row r="293" spans="3:5">
+    </row>
+    <row r="293" spans="3:3">
       <c r="C293" s="1">
         <v>43806.1027777778</v>
       </c>
-      <c r="E293" s="1">
-        <v>43806.1027777778</v>
-      </c>
-    </row>
-    <row r="294" spans="3:5">
+    </row>
+    <row r="294" spans="3:3">
       <c r="C294" s="1">
         <v>43806.1263888889</v>
       </c>
-      <c r="E294" s="1">
-        <v>43806.1263888889</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5">
+    </row>
+    <row r="295" spans="3:3">
       <c r="C295" s="1">
         <v>43806.1805555556</v>
       </c>
-      <c r="E295" s="1">
-        <v>43806.1805555556</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5">
+    </row>
+    <row r="296" spans="3:3">
       <c r="C296" s="1">
         <v>43806.2430555556</v>
       </c>
-      <c r="E296" s="1">
-        <v>43806.2430555556</v>
-      </c>
-    </row>
-    <row r="297" spans="3:5">
+    </row>
+    <row r="297" spans="3:3">
       <c r="C297" s="1">
         <v>43806.2444444444</v>
       </c>
-      <c r="E297" s="1">
-        <v>43806.2444444444</v>
-      </c>
-    </row>
-    <row r="298" spans="3:5">
+    </row>
+    <row r="298" spans="3:3">
       <c r="C298" s="1">
         <v>43806.3347222222</v>
       </c>
-      <c r="E298" s="1">
-        <v>43806.3347222222</v>
-      </c>
-    </row>
-    <row r="299" spans="3:5">
+    </row>
+    <row r="299" spans="3:3">
       <c r="C299" s="1">
         <v>43806.3847222222</v>
       </c>
-      <c r="E299" s="1">
-        <v>43806.3847222222</v>
-      </c>
-    </row>
-    <row r="300" spans="3:5">
+    </row>
+    <row r="300" spans="3:3">
       <c r="C300" s="1">
         <v>43806.6097222222</v>
       </c>
-      <c r="E300" s="1">
-        <v>43806.6097222222</v>
-      </c>
-    </row>
-    <row r="301" spans="3:5">
+    </row>
+    <row r="301" spans="3:3">
       <c r="C301" s="1">
         <v>43806.7222222222</v>
       </c>
-      <c r="E301" s="1">
-        <v>43806.7222222222</v>
-      </c>
-    </row>
-    <row r="302" spans="3:5">
+    </row>
+    <row r="302" spans="3:3">
       <c r="C302" s="1">
         <v>43807.0875</v>
       </c>
-      <c r="E302" s="1">
-        <v>43807.0875</v>
-      </c>
-    </row>
-    <row r="303" spans="3:5">
+    </row>
+    <row r="303" spans="3:3">
       <c r="C303" s="1">
         <v>43807.1138888889</v>
       </c>
-      <c r="E303" s="1">
-        <v>43807.1138888889</v>
-      </c>
-    </row>
-    <row r="304" spans="3:5">
+    </row>
+    <row r="304" spans="3:3">
       <c r="C304" s="1">
         <v>43807.1986111111</v>
       </c>
-      <c r="E304" s="1">
-        <v>43807.1986111111</v>
-      </c>
-    </row>
-    <row r="305" spans="3:5">
+    </row>
+    <row r="305" spans="3:3">
       <c r="C305" s="1">
         <v>43807.2652777778</v>
       </c>
-      <c r="E305" s="1">
-        <v>43807.2652777778</v>
-      </c>
-    </row>
-    <row r="306" spans="3:5">
+    </row>
+    <row r="306" spans="3:3">
       <c r="C306" s="1">
         <v>43807.3180555556</v>
       </c>
-      <c r="E306" s="1">
-        <v>43807.3180555556</v>
-      </c>
-    </row>
-    <row r="307" spans="3:5">
+    </row>
+    <row r="307" spans="3:3">
       <c r="C307" s="1">
         <v>43807.3875</v>
       </c>
-      <c r="E307" s="1">
-        <v>43807.3875</v>
-      </c>
-    </row>
-    <row r="308" spans="3:5">
+    </row>
+    <row r="308" spans="3:3">
       <c r="C308" s="1">
         <v>43807.6166666667</v>
       </c>
-      <c r="E308" s="1">
-        <v>43807.6166666667</v>
-      </c>
-    </row>
-    <row r="309" spans="3:5">
+    </row>
+    <row r="309" spans="3:3">
       <c r="C309" s="1">
         <v>43807.7347222222</v>
       </c>
-      <c r="E309" s="1">
-        <v>43807.7347222222</v>
-      </c>
-    </row>
-    <row r="310" spans="3:5">
+    </row>
+    <row r="310" spans="3:3">
       <c r="C310" s="1">
         <v>43807.8111111111</v>
       </c>
-      <c r="E310" s="1">
-        <v>43807.8111111111</v>
-      </c>
-    </row>
-    <row r="311" spans="3:5">
+    </row>
+    <row r="311" spans="3:3">
       <c r="C311" s="1">
         <v>43808.0986111111</v>
       </c>
-      <c r="E311" s="1">
-        <v>43808.0986111111</v>
-      </c>
-    </row>
-    <row r="312" spans="3:5">
+    </row>
+    <row r="312" spans="3:3">
       <c r="C312" s="1">
         <v>43808.2222222222</v>
       </c>
-      <c r="E312" s="1">
-        <v>43808.2222222222</v>
-      </c>
-    </row>
-    <row r="313" spans="3:5">
+    </row>
+    <row r="313" spans="3:3">
       <c r="C313" s="1">
         <v>43808.3777777778</v>
       </c>
-      <c r="E313" s="1">
-        <v>43808.3777777778</v>
-      </c>
-    </row>
-    <row r="314" spans="3:5">
+    </row>
+    <row r="314" spans="3:3">
       <c r="C314" s="1">
         <v>43808.6</v>
       </c>
-      <c r="E314" s="1">
-        <v>43808.6</v>
-      </c>
-    </row>
-    <row r="315" spans="3:5">
+    </row>
+    <row r="315" spans="3:3">
       <c r="C315" s="1">
         <v>43808.6819444444</v>
       </c>
-      <c r="E315" s="1">
-        <v>43808.6819444444</v>
-      </c>
-    </row>
-    <row r="316" spans="3:5">
+    </row>
+    <row r="316" spans="3:3">
       <c r="C316" s="1">
         <v>43808.7861111111</v>
       </c>
-      <c r="E316" s="1">
-        <v>43808.7861111111</v>
-      </c>
-    </row>
-    <row r="317" spans="3:5">
+    </row>
+    <row r="317" spans="3:3">
       <c r="C317">
         <v>564290000</v>
       </c>
-      <c r="E317">
-        <v>564290000</v>
-      </c>
-    </row>
-    <row r="318" spans="3:5">
+    </row>
+    <row r="318" spans="3:3">
       <c r="C318" s="1">
         <v>43804.9652777778</v>
       </c>
-      <c r="E318" s="1">
-        <v>43804.9652777778</v>
-      </c>
-    </row>
-    <row r="319" spans="3:5">
+    </row>
+    <row r="319" spans="3:3">
       <c r="C319">
         <v>538004243</v>
       </c>
-      <c r="E319">
-        <v>538004243</v>
-      </c>
-    </row>
-    <row r="320" spans="3:5">
+    </row>
+    <row r="320" spans="3:3">
       <c r="C320" s="1">
         <v>43800.0180555556</v>
       </c>
-      <c r="E320" s="1">
-        <v>43800.0180555556</v>
-      </c>
-    </row>
-    <row r="321" spans="3:5">
+    </row>
+    <row r="321" spans="3:3">
       <c r="C321" s="1">
         <v>43800.3847222222</v>
       </c>
-      <c r="E321" s="1">
-        <v>43800.3847222222</v>
-      </c>
-    </row>
-    <row r="322" spans="3:5">
+    </row>
+    <row r="322" spans="3:3">
       <c r="C322" s="1">
         <v>43800.4708333333</v>
       </c>
-      <c r="E322" s="1">
-        <v>43800.4708333333</v>
-      </c>
-    </row>
-    <row r="323" spans="3:5">
+    </row>
+    <row r="323" spans="3:3">
       <c r="C323" s="1">
         <v>43800.5</v>
       </c>
-      <c r="E323" s="1">
-        <v>43800.5</v>
-      </c>
-    </row>
-    <row r="324" spans="3:5">
+    </row>
+    <row r="324" spans="3:3">
       <c r="C324" s="1">
         <v>43800.5236111111</v>
       </c>
-      <c r="E324" s="1">
-        <v>43800.5236111111</v>
-      </c>
-    </row>
-    <row r="325" spans="3:5">
+    </row>
+    <row r="325" spans="3:3">
       <c r="C325" s="1">
         <v>43800.5694444444</v>
       </c>
-      <c r="E325" s="1">
-        <v>43800.5694444444</v>
-      </c>
-    </row>
-    <row r="326" spans="3:5">
+    </row>
+    <row r="326" spans="3:3">
       <c r="C326" s="1">
         <v>43800.6083333333</v>
       </c>
-      <c r="E326" s="1">
-        <v>43800.6083333333</v>
-      </c>
-    </row>
-    <row r="327" spans="3:5">
+    </row>
+    <row r="327" spans="3:3">
       <c r="C327" s="1">
         <v>43801.1819444444</v>
       </c>
-      <c r="E327" s="1">
-        <v>43801.1819444444</v>
-      </c>
-    </row>
-    <row r="328" spans="3:5">
+    </row>
+    <row r="328" spans="3:3">
       <c r="C328" s="1">
         <v>43801.2625</v>
       </c>
-      <c r="E328" s="1">
-        <v>43801.2625</v>
-      </c>
-    </row>
-    <row r="329" spans="3:5">
+    </row>
+    <row r="329" spans="3:3">
       <c r="C329" s="1">
         <v>43801.3444444444</v>
       </c>
-      <c r="E329" s="1">
-        <v>43801.3444444444</v>
-      </c>
-    </row>
-    <row r="330" spans="3:5">
+    </row>
+    <row r="330" spans="3:3">
       <c r="C330" s="1">
         <v>43801.5041666667</v>
       </c>
-      <c r="E330" s="1">
-        <v>43801.5041666667</v>
-      </c>
-    </row>
-    <row r="331" spans="3:5">
+    </row>
+    <row r="331" spans="3:3">
       <c r="C331" s="1">
         <v>43801.575</v>
       </c>
-      <c r="E331" s="1">
-        <v>43801.575</v>
-      </c>
-    </row>
-    <row r="332" spans="3:5">
+    </row>
+    <row r="332" spans="3:3">
       <c r="C332" s="1">
         <v>43801.7916666667</v>
       </c>
-      <c r="E332" s="1">
-        <v>43801.7916666667</v>
-      </c>
-    </row>
-    <row r="333" spans="3:5">
+    </row>
+    <row r="333" spans="3:3">
       <c r="C333" s="1">
         <v>43802.5375</v>
       </c>
-      <c r="E333" s="1">
-        <v>43802.5375</v>
-      </c>
-    </row>
-    <row r="334" spans="3:5">
+    </row>
+    <row r="334" spans="3:3">
       <c r="C334" s="1">
         <v>43802.6097222222</v>
       </c>
-      <c r="E334" s="1">
-        <v>43802.6097222222</v>
-      </c>
-    </row>
-    <row r="335" spans="3:5">
+    </row>
+    <row r="335" spans="3:3">
       <c r="C335" s="1">
         <v>43802.7013888889</v>
       </c>
-      <c r="E335" s="1">
-        <v>43802.7013888889</v>
-      </c>
-    </row>
-    <row r="336" spans="3:5">
+    </row>
+    <row r="336" spans="3:3">
       <c r="C336" s="1">
         <v>43802.7513888889</v>
       </c>
-      <c r="E336" s="1">
-        <v>43802.7513888889</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5">
+    </row>
+    <row r="337" spans="3:3">
       <c r="C337" s="1">
         <v>43802.7666666667</v>
       </c>
-      <c r="E337" s="1">
-        <v>43802.7666666667</v>
-      </c>
-    </row>
-    <row r="338" spans="3:5">
+    </row>
+    <row r="338" spans="3:3">
       <c r="C338" s="1">
         <v>43802.7680555556</v>
       </c>
-      <c r="E338" s="1">
-        <v>43802.7680555556</v>
-      </c>
-    </row>
-    <row r="339" spans="3:5">
+    </row>
+    <row r="339" spans="3:3">
       <c r="C339" s="1">
         <v>43803.1</v>
       </c>
-      <c r="E339" s="1">
-        <v>43803.1</v>
-      </c>
-    </row>
-    <row r="340" spans="3:5">
+    </row>
+    <row r="340" spans="3:3">
       <c r="C340" s="1">
         <v>43803.1416666667</v>
       </c>
-      <c r="E340" s="1">
-        <v>43803.1416666667</v>
-      </c>
-    </row>
-    <row r="341" spans="3:5">
+    </row>
+    <row r="341" spans="3:3">
       <c r="C341" s="1">
         <v>43803.2763888889</v>
       </c>
-      <c r="E341" s="1">
-        <v>43803.2763888889</v>
-      </c>
-    </row>
-    <row r="342" spans="3:5">
+    </row>
+    <row r="342" spans="3:3">
       <c r="C342" s="1">
         <v>43803.4972222222</v>
       </c>
-      <c r="E342" s="1">
-        <v>43803.4972222222</v>
-      </c>
-    </row>
-    <row r="343" spans="3:5">
+    </row>
+    <row r="343" spans="3:3">
       <c r="C343" s="1">
         <v>43803.5430555556</v>
       </c>
-      <c r="E343" s="1">
-        <v>43803.5430555556</v>
-      </c>
-    </row>
-    <row r="344" spans="3:5">
+    </row>
+    <row r="344" spans="3:3">
       <c r="C344" s="1">
         <v>43804.05</v>
       </c>
-      <c r="E344" s="1">
-        <v>43804.05</v>
-      </c>
-    </row>
-    <row r="345" spans="3:5">
+    </row>
+    <row r="345" spans="3:3">
       <c r="C345" s="1">
         <v>43804.1347222222</v>
       </c>
-      <c r="E345" s="1">
-        <v>43804.1347222222</v>
-      </c>
-    </row>
-    <row r="346" spans="3:5">
+    </row>
+    <row r="346" spans="3:3">
       <c r="C346" s="1">
         <v>43804.4041666667</v>
       </c>
-      <c r="E346" s="1">
-        <v>43804.4041666667</v>
-      </c>
-    </row>
-    <row r="347" spans="3:5">
+    </row>
+    <row r="347" spans="3:3">
       <c r="C347" s="1">
         <v>43804.4569444444</v>
       </c>
-      <c r="E347" s="1">
-        <v>43804.4569444444</v>
-      </c>
-    </row>
-    <row r="348" spans="3:5">
+    </row>
+    <row r="348" spans="3:3">
       <c r="C348" s="1">
         <v>43804.5708333333</v>
       </c>
-      <c r="E348" s="1">
-        <v>43804.5708333333</v>
-      </c>
-    </row>
-    <row r="349" spans="3:5">
+    </row>
+    <row r="349" spans="3:3">
       <c r="C349" s="1">
         <v>43804.8208333333</v>
       </c>
-      <c r="E349" s="1">
-        <v>43804.8208333333</v>
-      </c>
-    </row>
-    <row r="350" spans="3:5">
+    </row>
+    <row r="350" spans="3:3">
       <c r="C350" s="1">
         <v>43805.0805555556</v>
       </c>
-      <c r="E350" s="1">
-        <v>43805.0805555556</v>
-      </c>
-    </row>
-    <row r="351" spans="3:5">
+    </row>
+    <row r="351" spans="3:3">
       <c r="C351" s="1">
         <v>43805.1930555556</v>
       </c>
-      <c r="E351" s="1">
-        <v>43805.1930555556</v>
-      </c>
-    </row>
-    <row r="352" spans="3:5">
+    </row>
+    <row r="352" spans="3:3">
       <c r="C352" s="1">
         <v>43805.4166666667</v>
       </c>
-      <c r="E352" s="1">
-        <v>43805.4166666667</v>
-      </c>
-    </row>
-    <row r="353" spans="3:5">
+    </row>
+    <row r="353" spans="3:3">
       <c r="C353" s="1">
         <v>43805.4930555556</v>
       </c>
-      <c r="E353" s="1">
-        <v>43805.4930555556</v>
-      </c>
-    </row>
-    <row r="354" spans="3:5">
+    </row>
+    <row r="354" spans="3:3">
       <c r="C354" s="1">
         <v>43805.6486111111</v>
       </c>
-      <c r="E354" s="1">
-        <v>43805.6486111111</v>
-      </c>
-    </row>
-    <row r="355" spans="3:5">
+    </row>
+    <row r="355" spans="3:3">
       <c r="C355" s="1">
         <v>43805.7055555556</v>
       </c>
-      <c r="E355" s="1">
-        <v>43805.7055555556</v>
-      </c>
-    </row>
-    <row r="356" spans="3:5">
+    </row>
+    <row r="356" spans="3:3">
       <c r="C356" s="1">
         <v>43806.0388888889</v>
       </c>
-      <c r="E356" s="1">
-        <v>43806.0388888889</v>
-      </c>
-    </row>
-    <row r="357" spans="3:5">
+    </row>
+    <row r="357" spans="3:3">
       <c r="C357" s="1">
         <v>43806.4777777778</v>
       </c>
-      <c r="E357" s="1">
-        <v>43806.4777777778</v>
-      </c>
-    </row>
-    <row r="358" spans="3:5">
+    </row>
+    <row r="358" spans="3:3">
       <c r="C358" s="1">
         <v>43806.6597222222</v>
       </c>
-      <c r="E358" s="1">
-        <v>43806.6597222222</v>
-      </c>
-    </row>
-    <row r="359" spans="3:5">
+    </row>
+    <row r="359" spans="3:3">
       <c r="C359" s="1">
         <v>43806.6611111111</v>
       </c>
-      <c r="E359" s="1">
-        <v>43806.6611111111</v>
-      </c>
-    </row>
-    <row r="360" spans="3:5">
+    </row>
+    <row r="360" spans="3:3">
       <c r="C360" s="1">
         <v>43806.7236111111</v>
       </c>
-      <c r="E360" s="1">
-        <v>43806.7236111111</v>
-      </c>
-    </row>
-    <row r="361" spans="3:5">
+    </row>
+    <row r="361" spans="3:3">
       <c r="C361" s="1">
         <v>43807.1277777778</v>
       </c>
-      <c r="E361" s="1">
-        <v>43807.1277777778</v>
-      </c>
-    </row>
-    <row r="362" spans="3:5">
+    </row>
+    <row r="362" spans="3:3">
       <c r="C362" s="1">
         <v>43807.2541666667</v>
       </c>
-      <c r="E362" s="1">
-        <v>43807.2541666667</v>
-      </c>
-    </row>
-    <row r="363" spans="3:5">
+    </row>
+    <row r="363" spans="3:3">
       <c r="C363" s="1">
         <v>43807.2680555556</v>
       </c>
-      <c r="E363" s="1">
-        <v>43807.2680555556</v>
-      </c>
-    </row>
-    <row r="364" spans="3:5">
+    </row>
+    <row r="364" spans="3:3">
       <c r="C364" s="1">
         <v>43807.6291666667</v>
       </c>
-      <c r="E364" s="1">
-        <v>43807.6291666667</v>
-      </c>
-    </row>
-    <row r="365" spans="3:5">
+    </row>
+    <row r="365" spans="3:3">
       <c r="C365" s="1">
         <v>43808.1416666667</v>
       </c>
-      <c r="E365" s="1">
-        <v>43808.1416666667</v>
-      </c>
-    </row>
-    <row r="366" spans="3:5">
+    </row>
+    <row r="366" spans="3:3">
       <c r="C366" s="1">
         <v>43808.1958333333</v>
       </c>
-      <c r="E366" s="1">
-        <v>43808.1958333333</v>
-      </c>
-    </row>
-    <row r="367" spans="3:5">
+    </row>
+    <row r="367" spans="3:3">
       <c r="C367" s="1">
         <v>43808.2069444444</v>
       </c>
-      <c r="E367" s="1">
-        <v>43808.2069444444</v>
-      </c>
-    </row>
-    <row r="368" spans="3:5">
+    </row>
+    <row r="368" spans="3:3">
       <c r="C368" s="1">
         <v>43808.225</v>
       </c>
-      <c r="E368" s="1">
-        <v>43808.225</v>
-      </c>
-    </row>
-    <row r="369" spans="3:5">
+    </row>
+    <row r="369" spans="3:3">
       <c r="C369" s="1">
         <v>43808.275</v>
       </c>
-      <c r="E369" s="1">
-        <v>43808.275</v>
-      </c>
-    </row>
-    <row r="370" spans="3:5">
+    </row>
+    <row r="370" spans="3:3">
       <c r="C370" s="1">
         <v>43808.3680555556</v>
       </c>
-      <c r="E370" s="1">
-        <v>43808.3680555556</v>
-      </c>
-    </row>
-    <row r="371" spans="3:5">
+    </row>
+    <row r="371" spans="3:3">
       <c r="C371" s="1">
         <v>43808.75</v>
       </c>
-      <c r="E371" s="1">
-        <v>43808.75</v>
-      </c>
-    </row>
-    <row r="372" spans="3:5">
+    </row>
+    <row r="372" spans="3:3">
       <c r="C372">
         <v>477264400</v>
       </c>
-      <c r="E372">
-        <v>477264400</v>
-      </c>
-    </row>
-    <row r="373" spans="3:5">
+    </row>
+    <row r="373" spans="3:3">
       <c r="C373" s="1">
         <v>43800.0055555556</v>
       </c>
-      <c r="E373" s="1">
-        <v>43800.0055555556</v>
-      </c>
-    </row>
-    <row r="374" spans="3:5">
+    </row>
+    <row r="374" spans="3:3">
       <c r="C374" s="1">
         <v>43800.0291666667</v>
       </c>
-      <c r="E374" s="1">
-        <v>43800.0291666667</v>
-      </c>
-    </row>
-    <row r="375" spans="3:5">
+    </row>
+    <row r="375" spans="3:3">
       <c r="C375" s="1">
         <v>43800.0930555556</v>
       </c>
-      <c r="E375" s="1">
-        <v>43800.0930555556</v>
-      </c>
-    </row>
-    <row r="376" spans="3:5">
+    </row>
+    <row r="376" spans="3:3">
       <c r="C376" s="1">
         <v>43800.2680555556</v>
       </c>
-      <c r="E376" s="1">
-        <v>43800.2680555556</v>
-      </c>
-    </row>
-    <row r="377" spans="3:5">
+    </row>
+    <row r="377" spans="3:3">
       <c r="C377" s="1">
         <v>43800.4319444444</v>
       </c>
-      <c r="E377" s="1">
-        <v>43800.4319444444</v>
-      </c>
-    </row>
-    <row r="378" spans="3:5">
+    </row>
+    <row r="378" spans="3:3">
       <c r="C378" s="1">
         <v>43800.4888888889</v>
       </c>
-      <c r="E378" s="1">
-        <v>43800.4888888889</v>
-      </c>
-    </row>
-    <row r="379" spans="3:5">
+    </row>
+    <row r="379" spans="3:3">
       <c r="C379" s="1">
         <v>43800.9222222222</v>
       </c>
-      <c r="E379" s="1">
-        <v>43800.9222222222</v>
-      </c>
-    </row>
-    <row r="380" spans="3:5">
+    </row>
+    <row r="380" spans="3:3">
       <c r="C380" s="1">
         <v>43800.9875</v>
       </c>
-      <c r="E380" s="1">
-        <v>43800.9875</v>
-      </c>
-    </row>
-    <row r="381" spans="3:5">
+    </row>
+    <row r="381" spans="3:3">
       <c r="C381" s="1">
         <v>43801.5222222222</v>
       </c>
-      <c r="E381" s="1">
-        <v>43801.5222222222</v>
-      </c>
-    </row>
-    <row r="382" spans="3:5">
+    </row>
+    <row r="382" spans="3:3">
       <c r="C382" s="1">
         <v>43801.5888888889</v>
       </c>
-      <c r="E382" s="1">
-        <v>43801.5888888889</v>
-      </c>
-    </row>
-    <row r="383" spans="3:5">
+    </row>
+    <row r="383" spans="3:3">
       <c r="C383" s="1">
         <v>43801.7388888889</v>
       </c>
-      <c r="E383" s="1">
-        <v>43801.7388888889</v>
-      </c>
-    </row>
-    <row r="384" spans="3:5">
+    </row>
+    <row r="384" spans="3:3">
       <c r="C384" s="1">
         <v>43802.0027777778</v>
       </c>
-      <c r="E384" s="1">
-        <v>43802.0027777778</v>
-      </c>
-    </row>
-    <row r="385" spans="3:5">
+    </row>
+    <row r="385" spans="3:3">
       <c r="C385" s="1">
         <v>43802.2625</v>
       </c>
-      <c r="E385" s="1">
-        <v>43802.2625</v>
-      </c>
-    </row>
-    <row r="386" spans="3:5">
+    </row>
+    <row r="386" spans="3:3">
       <c r="C386" s="1">
         <v>43802.2875</v>
       </c>
-      <c r="E386" s="1">
-        <v>43802.2875</v>
-      </c>
-    </row>
-    <row r="387" spans="3:5">
+    </row>
+    <row r="387" spans="3:3">
       <c r="C387" s="1">
         <v>43802.4833333333</v>
       </c>
-      <c r="E387" s="1">
-        <v>43802.4833333333</v>
-      </c>
-    </row>
-    <row r="388" spans="3:5">
+    </row>
+    <row r="388" spans="3:3">
       <c r="C388" s="1">
         <v>43803.0694444444</v>
       </c>
-      <c r="E388" s="1">
-        <v>43803.0694444444</v>
-      </c>
-    </row>
-    <row r="389" spans="3:5">
+    </row>
+    <row r="389" spans="3:3">
       <c r="C389" s="1">
         <v>43803.4055555556</v>
       </c>
-      <c r="E389" s="1">
-        <v>43803.4055555556</v>
-      </c>
-    </row>
-    <row r="390" spans="3:5">
+    </row>
+    <row r="390" spans="3:3">
       <c r="C390" s="1">
         <v>43804.3972222222</v>
       </c>
-      <c r="E390" s="1">
-        <v>43804.3972222222</v>
-      </c>
-    </row>
-    <row r="391" spans="3:5">
+    </row>
+    <row r="391" spans="3:3">
       <c r="C391" s="1">
         <v>43804.6597222222</v>
       </c>
-      <c r="E391" s="1">
-        <v>43804.6597222222</v>
-      </c>
-    </row>
-    <row r="392" spans="3:5">
+    </row>
+    <row r="392" spans="3:3">
       <c r="C392">
         <v>563077300</v>
       </c>
-      <c r="E392">
-        <v>563077300</v>
-      </c>
-    </row>
-    <row r="393" spans="3:5">
+    </row>
+    <row r="393" spans="3:3">
       <c r="C393" s="1">
         <v>43801.7083333333</v>
       </c>
-      <c r="E393" s="1">
-        <v>43801.7083333333</v>
-      </c>
-    </row>
-    <row r="394" spans="3:5">
+    </row>
+    <row r="394" spans="3:3">
       <c r="C394" s="1">
         <v>43802.4416666667</v>
       </c>
-      <c r="E394" s="1">
-        <v>43802.4416666667</v>
-      </c>
-    </row>
-    <row r="395" spans="3:5">
+    </row>
+    <row r="395" spans="3:3">
       <c r="C395" s="1">
         <v>43802.6916666667</v>
       </c>
-      <c r="E395" s="1">
-        <v>43802.6916666667</v>
-      </c>
-    </row>
-    <row r="396" spans="3:5">
+    </row>
+    <row r="396" spans="3:3">
       <c r="C396" s="1">
         <v>43802.7152777778</v>
       </c>
-      <c r="E396" s="1">
-        <v>43802.7152777778</v>
-      </c>
-    </row>
-    <row r="397" spans="3:5">
+    </row>
+    <row r="397" spans="3:3">
       <c r="C397" s="1">
         <v>43803.1777777778</v>
       </c>
-      <c r="E397" s="1">
-        <v>43803.1777777778</v>
-      </c>
-    </row>
-    <row r="398" spans="3:5">
+    </row>
+    <row r="398" spans="3:3">
       <c r="C398" s="1">
         <v>43803.2277777778</v>
       </c>
-      <c r="E398" s="1">
-        <v>43803.2277777778</v>
-      </c>
-    </row>
-    <row r="399" spans="3:5">
+    </row>
+    <row r="399" spans="3:3">
       <c r="C399" s="1">
         <v>43803.4013888889</v>
       </c>
-      <c r="E399" s="1">
-        <v>43803.4013888889</v>
-      </c>
-    </row>
-    <row r="400" spans="3:5">
+    </row>
+    <row r="400" spans="3:3">
       <c r="C400" s="1">
         <v>43803.4263888889</v>
       </c>
-      <c r="E400" s="1">
-        <v>43803.4263888889</v>
-      </c>
-    </row>
-    <row r="401" spans="3:5">
+    </row>
+    <row r="401" spans="3:3">
       <c r="C401" s="1">
         <v>43803.7</v>
       </c>
-      <c r="E401" s="1">
-        <v>43803.7</v>
-      </c>
-    </row>
-    <row r="402" spans="3:5">
+    </row>
+    <row r="402" spans="3:3">
       <c r="C402" s="1">
         <v>43804.1347222222</v>
       </c>
-      <c r="E402" s="1">
-        <v>43804.1347222222</v>
-      </c>
-    </row>
-    <row r="403" spans="3:5">
+    </row>
+    <row r="403" spans="3:3">
       <c r="C403" s="1">
         <v>43804.1597222222</v>
       </c>
-      <c r="E403" s="1">
-        <v>43804.1597222222</v>
-      </c>
-    </row>
-    <row r="404" spans="3:5">
+    </row>
+    <row r="404" spans="3:3">
       <c r="C404" s="1">
         <v>43804.3638888889</v>
       </c>
-      <c r="E404" s="1">
-        <v>43804.3638888889</v>
-      </c>
-    </row>
-    <row r="405" spans="3:5">
+    </row>
+    <row r="405" spans="3:3">
       <c r="C405" s="1">
         <v>43804.4208333333</v>
       </c>
-      <c r="E405" s="1">
-        <v>43804.4208333333</v>
-      </c>
-    </row>
-    <row r="406" spans="3:5">
+    </row>
+    <row r="406" spans="3:3">
       <c r="C406" s="1">
         <v>43804.7458333333</v>
       </c>
-      <c r="E406" s="1">
-        <v>43804.7458333333</v>
-      </c>
-    </row>
-    <row r="407" spans="3:5">
+    </row>
+    <row r="407" spans="3:3">
       <c r="C407" s="1">
         <v>43804.9152777778</v>
       </c>
-      <c r="E407" s="1">
-        <v>43804.9152777778</v>
-      </c>
-    </row>
-    <row r="408" spans="3:5">
+    </row>
+    <row r="408" spans="3:3">
       <c r="C408" s="1">
         <v>43805.0972222222</v>
       </c>
-      <c r="E408" s="1">
-        <v>43805.0972222222</v>
-      </c>
-    </row>
-    <row r="409" spans="3:5">
+    </row>
+    <row r="409" spans="3:3">
       <c r="C409" s="1">
         <v>43805.1694444444</v>
       </c>
-      <c r="E409" s="1">
-        <v>43805.1694444444</v>
-      </c>
-    </row>
-    <row r="410" spans="3:5">
+    </row>
+    <row r="410" spans="3:3">
       <c r="C410" s="1">
         <v>43805.2222222222</v>
       </c>
-      <c r="E410" s="1">
-        <v>43805.2222222222</v>
-      </c>
-    </row>
-    <row r="411" spans="3:5">
+    </row>
+    <row r="411" spans="3:3">
       <c r="C411" s="1">
         <v>43805.35</v>
       </c>
-      <c r="E411" s="1">
-        <v>43805.35</v>
-      </c>
-    </row>
-    <row r="412" spans="3:5">
+    </row>
+    <row r="412" spans="3:3">
       <c r="C412" s="1">
         <v>43805.4027777778</v>
       </c>
-      <c r="E412" s="1">
-        <v>43805.4027777778</v>
-      </c>
-    </row>
-    <row r="413" spans="3:5">
+    </row>
+    <row r="413" spans="3:3">
       <c r="C413" s="1">
         <v>43805.6208333333</v>
       </c>
-      <c r="E413" s="1">
-        <v>43805.6208333333</v>
-      </c>
-    </row>
-    <row r="414" spans="3:5">
+    </row>
+    <row r="414" spans="3:3">
       <c r="C414" s="1">
         <v>43805.6486111111</v>
       </c>
-      <c r="E414" s="1">
-        <v>43805.6486111111</v>
-      </c>
-    </row>
-    <row r="415" spans="3:5">
+    </row>
+    <row r="415" spans="3:3">
       <c r="C415" s="1">
         <v>43805.7083333333</v>
       </c>
-      <c r="E415" s="1">
-        <v>43805.7083333333</v>
-      </c>
-    </row>
-    <row r="416" spans="3:5">
+    </row>
+    <row r="416" spans="3:3">
       <c r="C416" s="1">
         <v>43805.8402777778</v>
       </c>
-      <c r="E416" s="1">
-        <v>43805.8402777778</v>
-      </c>
-    </row>
-    <row r="417" spans="3:5">
+    </row>
+    <row r="417" spans="3:3">
       <c r="C417" s="1">
         <v>43805.8736111111</v>
       </c>
-      <c r="E417" s="1">
-        <v>43805.8736111111</v>
-      </c>
-    </row>
-    <row r="418" spans="3:5">
+    </row>
+    <row r="418" spans="3:3">
       <c r="C418" s="1">
         <v>43806.1513888889</v>
       </c>
-      <c r="E418" s="1">
-        <v>43806.1513888889</v>
-      </c>
-    </row>
-    <row r="419" spans="3:5">
+    </row>
+    <row r="419" spans="3:3">
       <c r="C419" s="1">
         <v>43806.1763888889</v>
       </c>
-      <c r="E419" s="1">
-        <v>43806.1763888889</v>
-      </c>
-    </row>
-    <row r="420" spans="3:5">
+    </row>
+    <row r="420" spans="3:3">
       <c r="C420" s="1">
         <v>43806.1777777778</v>
       </c>
-      <c r="E420" s="1">
-        <v>43806.1777777778</v>
-      </c>
-    </row>
-    <row r="421" spans="3:5">
+    </row>
+    <row r="421" spans="3:3">
       <c r="C421" s="1">
         <v>43806.2430555556</v>
       </c>
-      <c r="E421" s="1">
-        <v>43806.2430555556</v>
-      </c>
-    </row>
-    <row r="422" spans="3:5">
+    </row>
+    <row r="422" spans="3:3">
       <c r="C422" s="1">
         <v>43806.3347222222</v>
       </c>
-      <c r="E422" s="1">
-        <v>43806.3347222222</v>
-      </c>
-    </row>
-    <row r="423" spans="3:5">
+    </row>
+    <row r="423" spans="3:3">
       <c r="C423" s="1">
         <v>43806.3847222222</v>
       </c>
-      <c r="E423" s="1">
-        <v>43806.3847222222</v>
-      </c>
-    </row>
-    <row r="424" spans="3:5">
+    </row>
+    <row r="424" spans="3:3">
       <c r="C424" s="1">
         <v>43806.7222222222</v>
       </c>
-      <c r="E424" s="1">
-        <v>43806.7222222222</v>
-      </c>
-    </row>
-    <row r="425" spans="3:5">
+    </row>
+    <row r="425" spans="3:3">
       <c r="C425" s="1">
         <v>43806.8361111111</v>
       </c>
-      <c r="E425" s="1">
-        <v>43806.8361111111</v>
-      </c>
-    </row>
-    <row r="426" spans="3:5">
+    </row>
+    <row r="426" spans="3:3">
       <c r="C426" s="1">
         <v>43806.8972222222</v>
       </c>
-      <c r="E426" s="1">
-        <v>43806.8972222222</v>
-      </c>
-    </row>
-    <row r="427" spans="3:5">
+    </row>
+    <row r="427" spans="3:3">
       <c r="C427" s="1">
         <v>43807.0666666667</v>
       </c>
-      <c r="E427" s="1">
-        <v>43807.0666666667</v>
-      </c>
-    </row>
-    <row r="428" spans="3:5">
+    </row>
+    <row r="428" spans="3:3">
       <c r="C428" s="1">
         <v>43807.0875</v>
       </c>
-      <c r="E428" s="1">
-        <v>43807.0875</v>
-      </c>
-    </row>
-    <row r="429" spans="3:5">
+    </row>
+    <row r="429" spans="3:3">
       <c r="C429" s="1">
         <v>43807.2</v>
       </c>
-      <c r="E429" s="1">
-        <v>43807.2</v>
-      </c>
-    </row>
-    <row r="430" spans="3:5">
+    </row>
+    <row r="430" spans="3:3">
       <c r="C430" s="1">
         <v>43807.3472222222</v>
       </c>
-      <c r="E430" s="1">
-        <v>43807.3472222222</v>
-      </c>
-    </row>
-    <row r="431" spans="3:5">
+    </row>
+    <row r="431" spans="3:3">
       <c r="C431" s="1">
         <v>43807.5694444444</v>
       </c>
-      <c r="E431" s="1">
-        <v>43807.5694444444</v>
-      </c>
-    </row>
-    <row r="432" spans="3:5">
+    </row>
+    <row r="432" spans="3:3">
       <c r="C432" s="1">
         <v>43807.6722222222</v>
       </c>
-      <c r="E432" s="1">
-        <v>43807.6722222222</v>
-      </c>
-    </row>
-    <row r="433" spans="3:5">
+    </row>
+    <row r="433" spans="3:3">
       <c r="C433" s="1">
         <v>43807.8</v>
       </c>
-      <c r="E433" s="1">
-        <v>43807.8</v>
-      </c>
-    </row>
-    <row r="434" spans="3:5">
+    </row>
+    <row r="434" spans="3:3">
       <c r="C434" s="1">
         <v>43807.8263888889</v>
       </c>
-      <c r="E434" s="1">
-        <v>43807.8263888889</v>
-      </c>
-    </row>
-    <row r="435" spans="3:5">
+    </row>
+    <row r="435" spans="3:3">
       <c r="C435" s="1">
         <v>43807.8305555556</v>
       </c>
-      <c r="E435" s="1">
-        <v>43807.8305555556</v>
-      </c>
-    </row>
-    <row r="436" spans="3:5">
+    </row>
+    <row r="436" spans="3:3">
       <c r="C436" s="1">
         <v>43807.9013888889</v>
       </c>
-      <c r="E436" s="1">
-        <v>43807.9013888889</v>
-      </c>
-    </row>
-    <row r="437" spans="3:5">
+    </row>
+    <row r="437" spans="3:3">
       <c r="C437" s="1">
         <v>43808.0763888889</v>
       </c>
-      <c r="E437" s="1">
-        <v>43808.0763888889</v>
-      </c>
-    </row>
-    <row r="438" spans="3:5">
+    </row>
+    <row r="438" spans="3:3">
       <c r="C438" s="1">
         <v>43808.0986111111</v>
       </c>
-      <c r="E438" s="1">
-        <v>43808.0986111111</v>
-      </c>
-    </row>
-    <row r="439" spans="3:5">
+    </row>
+    <row r="439" spans="3:3">
       <c r="C439" s="1">
         <v>43808.1236111111</v>
       </c>
-      <c r="E439" s="1">
-        <v>43808.1236111111</v>
-      </c>
-    </row>
-    <row r="440" spans="3:5">
+    </row>
+    <row r="440" spans="3:3">
       <c r="C440" s="1">
         <v>43808.2222222222</v>
       </c>
-      <c r="E440" s="1">
-        <v>43808.2222222222</v>
-      </c>
-    </row>
-    <row r="441" spans="3:5">
+    </row>
+    <row r="441" spans="3:3">
       <c r="C441" s="1">
         <v>43808.3736111111</v>
       </c>
-      <c r="E441" s="1">
-        <v>43808.3736111111</v>
-      </c>
-    </row>
-    <row r="442" spans="3:5">
+    </row>
+    <row r="442" spans="3:3">
       <c r="C442" s="1">
         <v>43808.5513888889</v>
-      </c>
-      <c r="E442" s="1">
-        <v>43808.5513888889</v>
-      </c>
-    </row>
-    <row r="444" spans="5:5">
-      <c r="E444" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
